--- a/饥荒百科全书CSharp/VK值.xlsx
+++ b/饥荒百科全书CSharp/VK值.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vs 源代码\饥荒百科全书CSharp\饥荒百科全书CSharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6828"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2132,3478 +2132,3478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B536"/>
+  <dimension ref="J1:K536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:B446"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="10" max="10" width="22.21875" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="10:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="4"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="4"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="10:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="4"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="10:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="4"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="4"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="4"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="4"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="4"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="4"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="4"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="4"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="4"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="4"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="8"/>
-    </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="4"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="K44" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="4"/>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="K47" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J48" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J49" s="4"/>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="K50" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="9"/>
-    </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="4"/>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J53" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="K53" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="9"/>
-    </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="K54" s="8"/>
+    </row>
+    <row r="55" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J55" s="4"/>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J56" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="9"/>
-    </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="K57" s="8"/>
+    </row>
+    <row r="58" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="4"/>
+      <c r="K58" s="9"/>
+    </row>
+    <row r="59" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="K59" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="132" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="10:11" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="9"/>
-    </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="K60" s="8"/>
+    </row>
+    <row r="61" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J61" s="4"/>
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="K62" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J63" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="8"/>
-    </row>
-    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="K63" s="8"/>
+    </row>
+    <row r="64" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J64" s="4"/>
+      <c r="K64" s="9"/>
+    </row>
+    <row r="65" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="K65" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J66" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="8"/>
-    </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="K66" s="8"/>
+    </row>
+    <row r="67" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J67" s="4"/>
+      <c r="K67" s="9"/>
+    </row>
+    <row r="68" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="K68" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J69" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="9"/>
-    </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="K69" s="8"/>
+    </row>
+    <row r="70" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J70" s="4"/>
+      <c r="K70" s="9"/>
+    </row>
+    <row r="71" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J71" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="K71" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J72" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="9"/>
-    </row>
-    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J73" s="4"/>
+      <c r="K73" s="9"/>
+    </row>
+    <row r="74" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J74" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="K74" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J75" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="9"/>
-    </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J76" s="4"/>
+      <c r="K76" s="9"/>
+    </row>
+    <row r="77" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="K77" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J78" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="8"/>
-    </row>
-    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="9"/>
-    </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="K78" s="8"/>
+    </row>
+    <row r="79" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J79" s="4"/>
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J80" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="K80" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J81" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="9"/>
-    </row>
-    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="K81" s="8"/>
+    </row>
+    <row r="82" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J82" s="4"/>
+      <c r="K82" s="9"/>
+    </row>
+    <row r="83" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J83" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="K83" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J84" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="8"/>
-    </row>
-    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="9"/>
-    </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+      <c r="K84" s="8"/>
+    </row>
+    <row r="85" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J85" s="4"/>
+      <c r="K85" s="9"/>
+    </row>
+    <row r="86" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J86" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="K86" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J87" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="8"/>
-    </row>
-    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="9"/>
-    </row>
-    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+      <c r="K87" s="8"/>
+    </row>
+    <row r="88" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J88" s="4"/>
+      <c r="K88" s="9"/>
+    </row>
+    <row r="89" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J89" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="K89" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J90" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="8"/>
-    </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="9"/>
-    </row>
-    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="K90" s="8"/>
+    </row>
+    <row r="91" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J91" s="4"/>
+      <c r="K91" s="9"/>
+    </row>
+    <row r="92" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J92" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="K92" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J93" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="8"/>
-    </row>
-    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="9"/>
-    </row>
-    <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="K93" s="8"/>
+    </row>
+    <row r="94" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J94" s="4"/>
+      <c r="K94" s="9"/>
+    </row>
+    <row r="95" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J95" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="K95" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J96" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B96" s="8"/>
-    </row>
-    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="9"/>
-    </row>
-    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+      <c r="K96" s="8"/>
+    </row>
+    <row r="97" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J97" s="4"/>
+      <c r="K97" s="9"/>
+    </row>
+    <row r="98" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J98" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="K98" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J99" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B99" s="8"/>
-    </row>
-    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="9"/>
-    </row>
-    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+      <c r="K99" s="8"/>
+    </row>
+    <row r="100" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J100" s="4"/>
+      <c r="K100" s="9"/>
+    </row>
+    <row r="101" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J101" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="K101" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J102" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B102" s="8"/>
-    </row>
-    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="9"/>
-    </row>
-    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+      <c r="K102" s="8"/>
+    </row>
+    <row r="103" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J103" s="4"/>
+      <c r="K103" s="9"/>
+    </row>
+    <row r="104" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J104" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="K104" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J105" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="8"/>
-    </row>
-    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="9"/>
-    </row>
-    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+      <c r="K105" s="8"/>
+    </row>
+    <row r="106" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J106" s="4"/>
+      <c r="K106" s="9"/>
+    </row>
+    <row r="107" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J107" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="K107" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J108" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="8"/>
-    </row>
-    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="9"/>
-    </row>
-    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+      <c r="K108" s="8"/>
+    </row>
+    <row r="109" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J109" s="4"/>
+      <c r="K109" s="9"/>
+    </row>
+    <row r="110" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J110" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="K110" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J111" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B111" s="8"/>
-    </row>
-    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="9"/>
-    </row>
-    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+      <c r="K111" s="8"/>
+    </row>
+    <row r="112" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J112" s="4"/>
+      <c r="K112" s="9"/>
+    </row>
+    <row r="113" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J113" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="K113" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="10:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J114" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B114" s="8"/>
-    </row>
-    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="9"/>
-    </row>
-    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+      <c r="K114" s="8"/>
+    </row>
+    <row r="115" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J115" s="4"/>
+      <c r="K115" s="9"/>
+    </row>
+    <row r="116" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J116" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="K116" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="10:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J117" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B117" s="8"/>
-    </row>
-    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="9"/>
-    </row>
-    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+      <c r="K117" s="8"/>
+    </row>
+    <row r="118" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J118" s="4"/>
+      <c r="K118" s="9"/>
+    </row>
+    <row r="119" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J119" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="K119" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J120" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="8"/>
-    </row>
-    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="9"/>
-    </row>
-    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+      <c r="K120" s="8"/>
+    </row>
+    <row r="121" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J121" s="4"/>
+      <c r="K121" s="9"/>
+    </row>
+    <row r="122" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J122" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="K122" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J123" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B123" s="8"/>
-    </row>
-    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="9"/>
-    </row>
-    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+      <c r="K123" s="8"/>
+    </row>
+    <row r="124" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J124" s="4"/>
+      <c r="K124" s="9"/>
+    </row>
+    <row r="125" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J125" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="K125" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J126" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B126" s="8"/>
-    </row>
-    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="9"/>
-    </row>
-    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+      <c r="K126" s="8"/>
+    </row>
+    <row r="127" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J127" s="4"/>
+      <c r="K127" s="9"/>
+    </row>
+    <row r="128" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J128" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="K128" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+    <row r="129" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J129" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B129" s="8"/>
-    </row>
-    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="9"/>
-    </row>
-    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
+      <c r="K129" s="8"/>
+    </row>
+    <row r="130" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J130" s="4"/>
+      <c r="K130" s="9"/>
+    </row>
+    <row r="131" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J131" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="K131" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
+    <row r="132" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J132" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B132" s="8"/>
-    </row>
-    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="9"/>
-    </row>
-    <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+      <c r="K132" s="8"/>
+    </row>
+    <row r="133" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J133" s="4"/>
+      <c r="K133" s="9"/>
+    </row>
+    <row r="134" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J134" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="K134" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
+    <row r="135" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J135" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B135" s="8"/>
-    </row>
-    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="9"/>
-    </row>
-    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+      <c r="K135" s="8"/>
+    </row>
+    <row r="136" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J136" s="4"/>
+      <c r="K136" s="9"/>
+    </row>
+    <row r="137" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J137" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="K137" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+    <row r="138" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J138" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B138" s="8"/>
-    </row>
-    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="9"/>
-    </row>
-    <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
+      <c r="K138" s="8"/>
+    </row>
+    <row r="139" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J139" s="4"/>
+      <c r="K139" s="9"/>
+    </row>
+    <row r="140" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J140" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="K140" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
+    <row r="141" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J141" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B141" s="8"/>
-    </row>
-    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="9"/>
-    </row>
-    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
+      <c r="K141" s="8"/>
+    </row>
+    <row r="142" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J142" s="4"/>
+      <c r="K142" s="9"/>
+    </row>
+    <row r="143" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J143" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="K143" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
+    <row r="144" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J144" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B144" s="8"/>
-    </row>
-    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="B145" s="9"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="10" t="s">
+      <c r="K144" s="8"/>
+    </row>
+    <row r="145" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J145" s="4"/>
+      <c r="K145" s="9"/>
+    </row>
+    <row r="146" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J146" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="K146" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
-      <c r="B147" s="9"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="10" t="s">
+    <row r="147" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J147" s="11"/>
+      <c r="K147" s="9"/>
+    </row>
+    <row r="148" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J148" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="K148" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
-      <c r="B149" s="9"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="10" t="s">
+    <row r="149" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J149" s="11"/>
+      <c r="K149" s="9"/>
+    </row>
+    <row r="150" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J150" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="K150" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
-      <c r="B151" s="9"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="10" t="s">
+    <row r="151" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J151" s="11"/>
+      <c r="K151" s="9"/>
+    </row>
+    <row r="152" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J152" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="K152" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
-      <c r="B153" s="9"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="10" t="s">
+    <row r="153" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J153" s="11"/>
+      <c r="K153" s="9"/>
+    </row>
+    <row r="154" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J154" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="K154" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="11"/>
-      <c r="B155" s="9"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="10" t="s">
+    <row r="155" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J155" s="11"/>
+      <c r="K155" s="9"/>
+    </row>
+    <row r="156" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J156" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="K156" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
-      <c r="B157" s="9"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="10" t="s">
+    <row r="157" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J157" s="11"/>
+      <c r="K157" s="9"/>
+    </row>
+    <row r="158" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J158" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="K158" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="11"/>
-      <c r="B159" s="9"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="10" t="s">
+    <row r="159" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J159" s="11"/>
+      <c r="K159" s="9"/>
+    </row>
+    <row r="160" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J160" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="K160" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
-      <c r="B161" s="9"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="10" t="s">
+    <row r="161" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J161" s="11"/>
+      <c r="K161" s="9"/>
+    </row>
+    <row r="162" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J162" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="K162" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="11"/>
-      <c r="B163" s="9"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="10" t="s">
+    <row r="163" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J163" s="11"/>
+      <c r="K163" s="9"/>
+    </row>
+    <row r="164" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J164" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="K164" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="11"/>
-      <c r="B165" s="9"/>
-    </row>
-    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
+    <row r="165" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J165" s="11"/>
+      <c r="K165" s="9"/>
+    </row>
+    <row r="166" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J166" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="K166" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
+    <row r="167" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J167" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B167" s="8"/>
-    </row>
-    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="B168" s="9"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="10" t="s">
+      <c r="K167" s="8"/>
+    </row>
+    <row r="168" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J168" s="4"/>
+      <c r="K168" s="9"/>
+    </row>
+    <row r="169" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J169" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="K169" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
-      <c r="B170" s="9"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="10" t="s">
+    <row r="170" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J170" s="11"/>
+      <c r="K170" s="9"/>
+    </row>
+    <row r="171" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J171" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="K171" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="11"/>
-      <c r="B172" s="9"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="10" t="s">
+    <row r="172" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J172" s="11"/>
+      <c r="K172" s="9"/>
+    </row>
+    <row r="173" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J173" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="K173" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="11"/>
-      <c r="B174" s="9"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="10" t="s">
+    <row r="174" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J174" s="11"/>
+      <c r="K174" s="9"/>
+    </row>
+    <row r="175" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J175" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="K175" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="11"/>
-      <c r="B176" s="9"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="10" t="s">
+    <row r="176" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J176" s="11"/>
+      <c r="K176" s="9"/>
+    </row>
+    <row r="177" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J177" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="K177" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
-      <c r="B178" s="9"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="10" t="s">
+    <row r="178" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J178" s="11"/>
+      <c r="K178" s="9"/>
+    </row>
+    <row r="179" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J179" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="K179" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="11"/>
-      <c r="B180" s="9"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="10" t="s">
+    <row r="180" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J180" s="11"/>
+      <c r="K180" s="9"/>
+    </row>
+    <row r="181" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J181" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="K181" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="11"/>
-      <c r="B182" s="9"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="10" t="s">
+    <row r="182" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J182" s="11"/>
+      <c r="K182" s="9"/>
+    </row>
+    <row r="183" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J183" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="K183" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="11"/>
-      <c r="B184" s="9"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="10" t="s">
+    <row r="184" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J184" s="11"/>
+      <c r="K184" s="9"/>
+    </row>
+    <row r="185" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J185" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="K185" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="11"/>
-      <c r="B186" s="9"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="10" t="s">
+    <row r="186" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J186" s="11"/>
+      <c r="K186" s="9"/>
+    </row>
+    <row r="187" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J187" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="K187" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="11"/>
-      <c r="B188" s="9"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="10" t="s">
+    <row r="188" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J188" s="11"/>
+      <c r="K188" s="9"/>
+    </row>
+    <row r="189" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J189" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="K189" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="11"/>
-      <c r="B190" s="9"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="10" t="s">
+    <row r="190" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J190" s="11"/>
+      <c r="K190" s="9"/>
+    </row>
+    <row r="191" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J191" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="K191" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="11"/>
-      <c r="B192" s="9"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="10" t="s">
+    <row r="192" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J192" s="11"/>
+      <c r="K192" s="9"/>
+    </row>
+    <row r="193" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J193" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="K193" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="11"/>
-      <c r="B194" s="9"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="10" t="s">
+    <row r="194" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J194" s="11"/>
+      <c r="K194" s="9"/>
+    </row>
+    <row r="195" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J195" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="K195" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="11"/>
-      <c r="B196" s="9"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="10" t="s">
+    <row r="196" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J196" s="11"/>
+      <c r="K196" s="9"/>
+    </row>
+    <row r="197" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J197" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="K197" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="11"/>
-      <c r="B198" s="9"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="10" t="s">
+    <row r="198" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J198" s="11"/>
+      <c r="K198" s="9"/>
+    </row>
+    <row r="199" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J199" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="K199" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="11"/>
-      <c r="B200" s="9"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="10" t="s">
+    <row r="200" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J200" s="11"/>
+      <c r="K200" s="9"/>
+    </row>
+    <row r="201" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J201" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="K201" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="11"/>
-      <c r="B202" s="9"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="10" t="s">
+    <row r="202" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J202" s="11"/>
+      <c r="K202" s="9"/>
+    </row>
+    <row r="203" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J203" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="K203" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="11"/>
-      <c r="B204" s="9"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="10" t="s">
+    <row r="204" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J204" s="11"/>
+      <c r="K204" s="9"/>
+    </row>
+    <row r="205" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J205" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="K205" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="11"/>
-      <c r="B206" s="9"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="10" t="s">
+    <row r="206" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J206" s="11"/>
+      <c r="K206" s="9"/>
+    </row>
+    <row r="207" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J207" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="K207" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="11"/>
-      <c r="B208" s="9"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="10" t="s">
+    <row r="208" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J208" s="11"/>
+      <c r="K208" s="9"/>
+    </row>
+    <row r="209" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J209" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="K209" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="11"/>
-      <c r="B210" s="9"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="10" t="s">
+    <row r="210" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J210" s="11"/>
+      <c r="K210" s="9"/>
+    </row>
+    <row r="211" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J211" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="K211" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="11"/>
-      <c r="B212" s="9"/>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="10" t="s">
+    <row r="212" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J212" s="11"/>
+      <c r="K212" s="9"/>
+    </row>
+    <row r="213" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J213" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="K213" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="11"/>
-      <c r="B214" s="9"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="10" t="s">
+    <row r="214" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J214" s="11"/>
+      <c r="K214" s="9"/>
+    </row>
+    <row r="215" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J215" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="K215" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="11"/>
-      <c r="B216" s="9"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="10" t="s">
+    <row r="216" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J216" s="11"/>
+      <c r="K216" s="9"/>
+    </row>
+    <row r="217" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J217" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="K217" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="11"/>
-      <c r="B218" s="9"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="10" t="s">
+    <row r="218" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J218" s="11"/>
+      <c r="K218" s="9"/>
+    </row>
+    <row r="219" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J219" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="K219" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="11"/>
-      <c r="B220" s="9"/>
-    </row>
-    <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
+    <row r="220" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J220" s="11"/>
+      <c r="K220" s="9"/>
+    </row>
+    <row r="221" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J221" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="K221" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="3" t="s">
+    <row r="222" spans="10:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J222" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B222" s="8"/>
-    </row>
-    <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="4"/>
-      <c r="B223" s="9"/>
-    </row>
-    <row r="224" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
+      <c r="K222" s="8"/>
+    </row>
+    <row r="223" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J223" s="4"/>
+      <c r="K223" s="9"/>
+    </row>
+    <row r="224" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J224" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="K224" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="3" t="s">
+    <row r="225" spans="10:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J225" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B225" s="8"/>
-    </row>
-    <row r="226" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
-      <c r="B226" s="9"/>
-    </row>
-    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
+      <c r="K225" s="8"/>
+    </row>
+    <row r="226" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J226" s="4"/>
+      <c r="K226" s="9"/>
+    </row>
+    <row r="227" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J227" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="K227" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
+    <row r="228" spans="10:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J228" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B228" s="8"/>
-    </row>
-    <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="4"/>
-      <c r="B229" s="9"/>
-    </row>
-    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
+      <c r="K228" s="8"/>
+    </row>
+    <row r="229" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J229" s="4"/>
+      <c r="K229" s="9"/>
+    </row>
+    <row r="230" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J230" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="K230" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
+    <row r="231" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J231" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B231" s="8"/>
-    </row>
-    <row r="232" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
-      <c r="B232" s="9"/>
-    </row>
-    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A233" s="2" t="s">
+      <c r="K231" s="8"/>
+    </row>
+    <row r="232" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J232" s="4"/>
+      <c r="K232" s="9"/>
+    </row>
+    <row r="233" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J233" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="K233" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
+    <row r="234" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J234" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B234" s="8"/>
-    </row>
-    <row r="235" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="4"/>
-      <c r="B235" s="9"/>
-    </row>
-    <row r="236" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
+      <c r="K234" s="8"/>
+    </row>
+    <row r="235" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J235" s="4"/>
+      <c r="K235" s="9"/>
+    </row>
+    <row r="236" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J236" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="K236" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="3" t="s">
+    <row r="237" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J237" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B237" s="8"/>
-    </row>
-    <row r="238" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="4"/>
-      <c r="B238" s="9"/>
-    </row>
-    <row r="239" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
+      <c r="K237" s="8"/>
+    </row>
+    <row r="238" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J238" s="4"/>
+      <c r="K238" s="9"/>
+    </row>
+    <row r="239" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J239" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="K239" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="3" t="s">
+    <row r="240" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J240" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B240" s="8"/>
-    </row>
-    <row r="241" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="4"/>
-      <c r="B241" s="9"/>
-    </row>
-    <row r="242" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A242" s="2" t="s">
+      <c r="K240" s="8"/>
+    </row>
+    <row r="241" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J241" s="4"/>
+      <c r="K241" s="9"/>
+    </row>
+    <row r="242" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J242" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="K242" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
+    <row r="243" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J243" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B243" s="8"/>
-    </row>
-    <row r="244" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
-      <c r="B244" s="9"/>
-    </row>
-    <row r="245" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A245" s="2" t="s">
+      <c r="K243" s="8"/>
+    </row>
+    <row r="244" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J244" s="4"/>
+      <c r="K244" s="9"/>
+    </row>
+    <row r="245" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J245" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="K245" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="3" t="s">
+    <row r="246" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J246" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B246" s="8"/>
-    </row>
-    <row r="247" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="4"/>
-      <c r="B247" s="9"/>
-    </row>
-    <row r="248" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A248" s="2" t="s">
+      <c r="K246" s="8"/>
+    </row>
+    <row r="247" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J247" s="4"/>
+      <c r="K247" s="9"/>
+    </row>
+    <row r="248" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J248" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="K248" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="3" t="s">
+    <row r="249" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J249" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B249" s="8"/>
-    </row>
-    <row r="250" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="4"/>
-      <c r="B250" s="9"/>
-    </row>
-    <row r="251" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A251" s="2" t="s">
+      <c r="K249" s="8"/>
+    </row>
+    <row r="250" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J250" s="4"/>
+      <c r="K250" s="9"/>
+    </row>
+    <row r="251" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J251" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="K251" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="3" t="s">
+    <row r="252" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J252" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B252" s="8"/>
-    </row>
-    <row r="253" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="4"/>
-      <c r="B253" s="9"/>
-    </row>
-    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
+      <c r="K252" s="8"/>
+    </row>
+    <row r="253" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J253" s="4"/>
+      <c r="K253" s="9"/>
+    </row>
+    <row r="254" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J254" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="K254" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="3" t="s">
+    <row r="255" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J255" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B255" s="8"/>
-    </row>
-    <row r="256" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="4"/>
-      <c r="B256" s="9"/>
-    </row>
-    <row r="257" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A257" s="2" t="s">
+      <c r="K255" s="8"/>
+    </row>
+    <row r="256" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J256" s="4"/>
+      <c r="K256" s="9"/>
+    </row>
+    <row r="257" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J257" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="K257" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="3" t="s">
+    <row r="258" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J258" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B258" s="8"/>
-    </row>
-    <row r="259" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="4"/>
-      <c r="B259" s="9"/>
-    </row>
-    <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A260" s="2" t="s">
+      <c r="K258" s="8"/>
+    </row>
+    <row r="259" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J259" s="4"/>
+      <c r="K259" s="9"/>
+    </row>
+    <row r="260" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J260" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="K260" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="3" t="s">
+    <row r="261" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J261" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B261" s="8"/>
-    </row>
-    <row r="262" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="4"/>
-      <c r="B262" s="9"/>
-    </row>
-    <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A263" s="2" t="s">
+      <c r="K261" s="8"/>
+    </row>
+    <row r="262" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J262" s="4"/>
+      <c r="K262" s="9"/>
+    </row>
+    <row r="263" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J263" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="K263" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="3" t="s">
+    <row r="264" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J264" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B264" s="8"/>
-    </row>
-    <row r="265" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="4"/>
-      <c r="B265" s="9"/>
-    </row>
-    <row r="266" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A266" s="2" t="s">
+      <c r="K264" s="8"/>
+    </row>
+    <row r="265" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J265" s="4"/>
+      <c r="K265" s="9"/>
+    </row>
+    <row r="266" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J266" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="K266" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="3" t="s">
+    <row r="267" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J267" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B267" s="8"/>
-    </row>
-    <row r="268" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="4"/>
-      <c r="B268" s="9"/>
-    </row>
-    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A269" s="2" t="s">
+      <c r="K267" s="8"/>
+    </row>
+    <row r="268" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J268" s="4"/>
+      <c r="K268" s="9"/>
+    </row>
+    <row r="269" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J269" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="K269" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="3" t="s">
+    <row r="270" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J270" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B270" s="8"/>
-    </row>
-    <row r="271" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="4"/>
-      <c r="B271" s="9"/>
-    </row>
-    <row r="272" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A272" s="2" t="s">
+      <c r="K270" s="8"/>
+    </row>
+    <row r="271" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J271" s="4"/>
+      <c r="K271" s="9"/>
+    </row>
+    <row r="272" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J272" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="K272" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="3" t="s">
+    <row r="273" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J273" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B273" s="8"/>
-    </row>
-    <row r="274" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="4"/>
-      <c r="B274" s="9"/>
-    </row>
-    <row r="275" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A275" s="2" t="s">
+      <c r="K273" s="8"/>
+    </row>
+    <row r="274" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J274" s="4"/>
+      <c r="K274" s="9"/>
+    </row>
+    <row r="275" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J275" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="K275" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="3" t="s">
+    <row r="276" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J276" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B276" s="8"/>
-    </row>
-    <row r="277" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="4"/>
-      <c r="B277" s="9"/>
-    </row>
-    <row r="278" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
+      <c r="K276" s="8"/>
+    </row>
+    <row r="277" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J277" s="4"/>
+      <c r="K277" s="9"/>
+    </row>
+    <row r="278" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J278" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="K278" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="3" t="s">
+    <row r="279" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J279" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B279" s="8"/>
-    </row>
-    <row r="280" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="4"/>
-      <c r="B280" s="9"/>
-    </row>
-    <row r="281" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A281" s="2" t="s">
+      <c r="K279" s="8"/>
+    </row>
+    <row r="280" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J280" s="4"/>
+      <c r="K280" s="9"/>
+    </row>
+    <row r="281" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J281" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="K281" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="3" t="s">
+    <row r="282" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J282" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B282" s="8"/>
-    </row>
-    <row r="283" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="4"/>
-      <c r="B283" s="9"/>
-    </row>
-    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A284" s="2" t="s">
+      <c r="K282" s="8"/>
+    </row>
+    <row r="283" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J283" s="4"/>
+      <c r="K283" s="9"/>
+    </row>
+    <row r="284" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J284" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="K284" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="3" t="s">
+    <row r="285" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J285" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B285" s="8"/>
-    </row>
-    <row r="286" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="4"/>
-      <c r="B286" s="9"/>
-    </row>
-    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A287" s="2" t="s">
+      <c r="K285" s="8"/>
+    </row>
+    <row r="286" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J286" s="4"/>
+      <c r="K286" s="9"/>
+    </row>
+    <row r="287" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J287" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="K287" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="3" t="s">
+    <row r="288" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J288" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B288" s="8"/>
-    </row>
-    <row r="289" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="4"/>
-      <c r="B289" s="9"/>
-    </row>
-    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A290" s="2" t="s">
+      <c r="K288" s="8"/>
+    </row>
+    <row r="289" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J289" s="4"/>
+      <c r="K289" s="9"/>
+    </row>
+    <row r="290" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J290" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="K290" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="3" t="s">
+    <row r="291" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J291" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B291" s="8"/>
-    </row>
-    <row r="292" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="4"/>
-      <c r="B292" s="9"/>
-    </row>
-    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A293" s="2" t="s">
+      <c r="K291" s="8"/>
+    </row>
+    <row r="292" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J292" s="4"/>
+      <c r="K292" s="9"/>
+    </row>
+    <row r="293" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J293" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="K293" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A294" s="3" t="s">
+    <row r="294" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J294" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B294" s="8"/>
-    </row>
-    <row r="295" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="4"/>
-      <c r="B295" s="9"/>
-    </row>
-    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A296" s="2" t="s">
+      <c r="K294" s="8"/>
+    </row>
+    <row r="295" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J295" s="4"/>
+      <c r="K295" s="9"/>
+    </row>
+    <row r="296" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J296" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="K296" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="3" t="s">
+    <row r="297" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J297" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B297" s="8"/>
-    </row>
-    <row r="298" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="4"/>
-      <c r="B298" s="9"/>
-    </row>
-    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A299" s="2" t="s">
+      <c r="K297" s="8"/>
+    </row>
+    <row r="298" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J298" s="4"/>
+      <c r="K298" s="9"/>
+    </row>
+    <row r="299" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J299" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="K299" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="3" t="s">
+    <row r="300" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J300" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B300" s="8"/>
-    </row>
-    <row r="301" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="4"/>
-      <c r="B301" s="9"/>
-    </row>
-    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A302" s="2" t="s">
+      <c r="K300" s="8"/>
+    </row>
+    <row r="301" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J301" s="4"/>
+      <c r="K301" s="9"/>
+    </row>
+    <row r="302" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J302" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B302" s="7" t="s">
+      <c r="K302" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="3" t="s">
+    <row r="303" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J303" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B303" s="8"/>
-    </row>
-    <row r="304" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="4"/>
-      <c r="B304" s="9"/>
-    </row>
-    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A305" s="2" t="s">
+      <c r="K303" s="8"/>
+    </row>
+    <row r="304" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J304" s="4"/>
+      <c r="K304" s="9"/>
+    </row>
+    <row r="305" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J305" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="K305" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A306" s="3" t="s">
+    <row r="306" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J306" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B306" s="8"/>
-    </row>
-    <row r="307" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="4"/>
-      <c r="B307" s="9"/>
-    </row>
-    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A308" s="2" t="s">
+      <c r="K306" s="8"/>
+    </row>
+    <row r="307" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J307" s="4"/>
+      <c r="K307" s="9"/>
+    </row>
+    <row r="308" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J308" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="K308" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A309" s="3" t="s">
+    <row r="309" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J309" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B309" s="8"/>
-    </row>
-    <row r="310" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="4"/>
-      <c r="B310" s="9"/>
-    </row>
-    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A311" s="2" t="s">
+      <c r="K309" s="8"/>
+    </row>
+    <row r="310" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J310" s="4"/>
+      <c r="K310" s="9"/>
+    </row>
+    <row r="311" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J311" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="K311" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A312" s="3" t="s">
+    <row r="312" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J312" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B312" s="8"/>
-    </row>
-    <row r="313" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="4"/>
-      <c r="B313" s="9"/>
-    </row>
-    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A314" s="2" t="s">
+      <c r="K312" s="8"/>
+    </row>
+    <row r="313" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J313" s="4"/>
+      <c r="K313" s="9"/>
+    </row>
+    <row r="314" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J314" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="K314" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A315" s="3" t="s">
+    <row r="315" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J315" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B315" s="8"/>
-    </row>
-    <row r="316" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="4"/>
-      <c r="B316" s="9"/>
-    </row>
-    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A317" s="2" t="s">
+      <c r="K315" s="8"/>
+    </row>
+    <row r="316" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J316" s="4"/>
+      <c r="K316" s="9"/>
+    </row>
+    <row r="317" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J317" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B317" s="7" t="s">
+      <c r="K317" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A318" s="3" t="s">
+    <row r="318" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J318" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B318" s="8"/>
-    </row>
-    <row r="319" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="4"/>
-      <c r="B319" s="9"/>
-    </row>
-    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A320" s="2" t="s">
+      <c r="K318" s="8"/>
+    </row>
+    <row r="319" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J319" s="4"/>
+      <c r="K319" s="9"/>
+    </row>
+    <row r="320" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J320" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="K320" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A321" s="3" t="s">
+    <row r="321" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J321" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B321" s="8"/>
-    </row>
-    <row r="322" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="4"/>
-      <c r="B322" s="9"/>
-    </row>
-    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A323" s="2" t="s">
+      <c r="K321" s="8"/>
+    </row>
+    <row r="322" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J322" s="4"/>
+      <c r="K322" s="9"/>
+    </row>
+    <row r="323" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J323" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="K323" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A324" s="3" t="s">
+    <row r="324" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J324" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B324" s="8"/>
-    </row>
-    <row r="325" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="4"/>
-      <c r="B325" s="9"/>
-    </row>
-    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A326" s="2" t="s">
+      <c r="K324" s="8"/>
+    </row>
+    <row r="325" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J325" s="4"/>
+      <c r="K325" s="9"/>
+    </row>
+    <row r="326" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J326" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B326" s="7" t="s">
+      <c r="K326" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A327" s="3" t="s">
+    <row r="327" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J327" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B327" s="8"/>
-    </row>
-    <row r="328" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="4"/>
-      <c r="B328" s="9"/>
-    </row>
-    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A329" s="2" t="s">
+      <c r="K327" s="8"/>
+    </row>
+    <row r="328" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J328" s="4"/>
+      <c r="K328" s="9"/>
+    </row>
+    <row r="329" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J329" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="K329" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A330" s="3" t="s">
+    <row r="330" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J330" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B330" s="8"/>
-    </row>
-    <row r="331" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="4"/>
-      <c r="B331" s="9"/>
-    </row>
-    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A332" s="2" t="s">
+      <c r="K330" s="8"/>
+    </row>
+    <row r="331" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J331" s="4"/>
+      <c r="K331" s="9"/>
+    </row>
+    <row r="332" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J332" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B332" s="7" t="s">
+      <c r="K332" s="7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A333" s="3" t="s">
+    <row r="333" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J333" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B333" s="8"/>
-    </row>
-    <row r="334" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="4"/>
-      <c r="B334" s="9"/>
-    </row>
-    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A335" s="2" t="s">
+      <c r="K333" s="8"/>
+    </row>
+    <row r="334" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J334" s="4"/>
+      <c r="K334" s="9"/>
+    </row>
+    <row r="335" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J335" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="K335" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A336" s="3" t="s">
+    <row r="336" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J336" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B336" s="8"/>
-    </row>
-    <row r="337" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="4"/>
-      <c r="B337" s="9"/>
-    </row>
-    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A338" s="2" t="s">
+      <c r="K336" s="8"/>
+    </row>
+    <row r="337" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J337" s="4"/>
+      <c r="K337" s="9"/>
+    </row>
+    <row r="338" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J338" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="K338" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A339" s="3" t="s">
+    <row r="339" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J339" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B339" s="8"/>
-    </row>
-    <row r="340" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="4"/>
-      <c r="B340" s="9"/>
-    </row>
-    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A341" s="2" t="s">
+      <c r="K339" s="8"/>
+    </row>
+    <row r="340" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J340" s="4"/>
+      <c r="K340" s="9"/>
+    </row>
+    <row r="341" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J341" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="K341" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A342" s="3" t="s">
+    <row r="342" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J342" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B342" s="8"/>
-    </row>
-    <row r="343" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="4"/>
-      <c r="B343" s="9"/>
-    </row>
-    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A344" s="2" t="s">
+      <c r="K342" s="8"/>
+    </row>
+    <row r="343" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J343" s="4"/>
+      <c r="K343" s="9"/>
+    </row>
+    <row r="344" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J344" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B344" s="7" t="s">
+      <c r="K344" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A345" s="3" t="s">
+    <row r="345" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J345" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B345" s="8"/>
-    </row>
-    <row r="346" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="4"/>
-      <c r="B346" s="9"/>
-    </row>
-    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A347" s="2" t="s">
+      <c r="K345" s="8"/>
+    </row>
+    <row r="346" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J346" s="4"/>
+      <c r="K346" s="9"/>
+    </row>
+    <row r="347" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J347" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="K347" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A348" s="3" t="s">
+    <row r="348" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J348" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B348" s="8"/>
-    </row>
-    <row r="349" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="4"/>
-      <c r="B349" s="9"/>
-    </row>
-    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A350" s="2" t="s">
+      <c r="K348" s="8"/>
+    </row>
+    <row r="349" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J349" s="4"/>
+      <c r="K349" s="9"/>
+    </row>
+    <row r="350" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J350" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B350" s="7" t="s">
+      <c r="K350" s="7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A351" s="3" t="s">
+    <row r="351" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J351" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B351" s="8"/>
-    </row>
-    <row r="352" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="4"/>
-      <c r="B352" s="9"/>
-    </row>
-    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A353" s="2" t="s">
+      <c r="K351" s="8"/>
+    </row>
+    <row r="352" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J352" s="4"/>
+      <c r="K352" s="9"/>
+    </row>
+    <row r="353" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J353" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B353" s="7" t="s">
+      <c r="K353" s="7" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A354" s="3" t="s">
+    <row r="354" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J354" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B354" s="8"/>
-    </row>
-    <row r="355" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="4"/>
-      <c r="B355" s="9"/>
-    </row>
-    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A356" s="2" t="s">
+      <c r="K354" s="8"/>
+    </row>
+    <row r="355" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J355" s="4"/>
+      <c r="K355" s="9"/>
+    </row>
+    <row r="356" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J356" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="K356" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A357" s="3" t="s">
+    <row r="357" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J357" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B357" s="8"/>
-    </row>
-    <row r="358" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="4"/>
-      <c r="B358" s="9"/>
-    </row>
-    <row r="359" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A359" s="2" t="s">
+      <c r="K357" s="8"/>
+    </row>
+    <row r="358" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J358" s="4"/>
+      <c r="K358" s="9"/>
+    </row>
+    <row r="359" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J359" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B359" s="7" t="s">
+      <c r="K359" s="7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A360" s="3" t="s">
+    <row r="360" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J360" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B360" s="8"/>
-    </row>
-    <row r="361" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="4"/>
-      <c r="B361" s="9"/>
-    </row>
-    <row r="362" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A362" s="2" t="s">
+      <c r="K360" s="8"/>
+    </row>
+    <row r="361" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J361" s="4"/>
+      <c r="K361" s="9"/>
+    </row>
+    <row r="362" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J362" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B362" s="7" t="s">
+      <c r="K362" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A363" s="3" t="s">
+    <row r="363" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J363" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B363" s="8"/>
-    </row>
-    <row r="364" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="4"/>
-      <c r="B364" s="9"/>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365" s="10" t="s">
+      <c r="K363" s="8"/>
+    </row>
+    <row r="364" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J364" s="4"/>
+      <c r="K364" s="9"/>
+    </row>
+    <row r="365" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J365" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B365" s="7" t="s">
+      <c r="K365" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="11"/>
-      <c r="B366" s="9"/>
-    </row>
-    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A367" s="2" t="s">
+    <row r="366" spans="10:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J366" s="11"/>
+      <c r="K366" s="9"/>
+    </row>
+    <row r="367" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J367" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B367" s="7" t="s">
+      <c r="K367" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A368" s="3" t="s">
+    <row r="368" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J368" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B368" s="8"/>
-    </row>
-    <row r="369" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="4"/>
-      <c r="B369" s="9"/>
-    </row>
-    <row r="370" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A370" s="2" t="s">
+      <c r="K368" s="8"/>
+    </row>
+    <row r="369" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J369" s="4"/>
+      <c r="K369" s="9"/>
+    </row>
+    <row r="370" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J370" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B370" s="7" t="s">
+      <c r="K370" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A371" s="3" t="s">
+    <row r="371" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J371" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B371" s="8"/>
-    </row>
-    <row r="372" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="4"/>
-      <c r="B372" s="9"/>
-    </row>
-    <row r="373" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A373" s="2" t="s">
+      <c r="K371" s="8"/>
+    </row>
+    <row r="372" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J372" s="4"/>
+      <c r="K372" s="9"/>
+    </row>
+    <row r="373" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J373" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B373" s="7" t="s">
+      <c r="K373" s="7" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A374" s="3" t="s">
+    <row r="374" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J374" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B374" s="8"/>
-    </row>
-    <row r="375" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="4"/>
-      <c r="B375" s="9"/>
-    </row>
-    <row r="376" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A376" s="2" t="s">
+      <c r="K374" s="8"/>
+    </row>
+    <row r="375" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J375" s="4"/>
+      <c r="K375" s="9"/>
+    </row>
+    <row r="376" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J376" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="K376" s="7" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A377" s="3" t="s">
+    <row r="377" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J377" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B377" s="8"/>
-    </row>
-    <row r="378" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="4"/>
-      <c r="B378" s="9"/>
-    </row>
-    <row r="379" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A379" s="2" t="s">
+      <c r="K377" s="8"/>
+    </row>
+    <row r="378" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J378" s="4"/>
+      <c r="K378" s="9"/>
+    </row>
+    <row r="379" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J379" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B379" s="7" t="s">
+      <c r="K379" s="7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A380" s="3" t="s">
+    <row r="380" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J380" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B380" s="8"/>
-    </row>
-    <row r="381" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="4"/>
-      <c r="B381" s="9"/>
-    </row>
-    <row r="382" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A382" s="2" t="s">
+      <c r="K380" s="8"/>
+    </row>
+    <row r="381" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J381" s="4"/>
+      <c r="K381" s="9"/>
+    </row>
+    <row r="382" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J382" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="K382" s="7" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A383" s="3" t="s">
+    <row r="383" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J383" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B383" s="8"/>
-    </row>
-    <row r="384" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="4"/>
-      <c r="B384" s="9"/>
-    </row>
-    <row r="385" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A385" s="2" t="s">
+      <c r="K383" s="8"/>
+    </row>
+    <row r="384" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J384" s="4"/>
+      <c r="K384" s="9"/>
+    </row>
+    <row r="385" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J385" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B385" s="7" t="s">
+      <c r="K385" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A386" s="3" t="s">
+    <row r="386" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J386" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B386" s="8"/>
-    </row>
-    <row r="387" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="4"/>
-      <c r="B387" s="9"/>
-    </row>
-    <row r="388" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A388" s="2" t="s">
+      <c r="K386" s="8"/>
+    </row>
+    <row r="387" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J387" s="4"/>
+      <c r="K387" s="9"/>
+    </row>
+    <row r="388" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J388" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B388" s="7" t="s">
+      <c r="K388" s="7" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A389" s="3" t="s">
+    <row r="389" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J389" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B389" s="8"/>
-    </row>
-    <row r="390" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="4"/>
-      <c r="B390" s="9"/>
-    </row>
-    <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A391" s="2" t="s">
+      <c r="K389" s="8"/>
+    </row>
+    <row r="390" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J390" s="4"/>
+      <c r="K390" s="9"/>
+    </row>
+    <row r="391" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="J391" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B391" s="7" t="s">
+      <c r="K391" s="7" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A392" s="3" t="s">
+    <row r="392" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J392" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B392" s="8"/>
-    </row>
-    <row r="393" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="4"/>
-      <c r="B393" s="9"/>
-    </row>
-    <row r="394" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A394" s="2" t="s">
+      <c r="K392" s="8"/>
+    </row>
+    <row r="393" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J393" s="4"/>
+      <c r="K393" s="9"/>
+    </row>
+    <row r="394" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="J394" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B394" s="7" t="s">
+      <c r="K394" s="7" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A395" s="3" t="s">
+    <row r="395" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J395" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B395" s="8"/>
-    </row>
-    <row r="396" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="4"/>
-      <c r="B396" s="9"/>
-    </row>
-    <row r="397" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A397" s="2" t="s">
+      <c r="K395" s="8"/>
+    </row>
+    <row r="396" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J396" s="4"/>
+      <c r="K396" s="9"/>
+    </row>
+    <row r="397" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J397" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B397" s="7" t="s">
+      <c r="K397" s="7" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A398" s="3" t="s">
+    <row r="398" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J398" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B398" s="8"/>
-    </row>
-    <row r="399" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="4"/>
-      <c r="B399" s="9"/>
-    </row>
-    <row r="400" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A400" s="2" t="s">
+      <c r="K398" s="8"/>
+    </row>
+    <row r="399" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J399" s="4"/>
+      <c r="K399" s="9"/>
+    </row>
+    <row r="400" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="J400" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B400" s="7" t="s">
+      <c r="K400" s="7" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A401" s="3" t="s">
+    <row r="401" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J401" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B401" s="8"/>
-    </row>
-    <row r="402" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="4"/>
-      <c r="B402" s="9"/>
-    </row>
-    <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A403" s="2" t="s">
+      <c r="K401" s="8"/>
+    </row>
+    <row r="402" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J402" s="4"/>
+      <c r="K402" s="9"/>
+    </row>
+    <row r="403" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="J403" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B403" s="7" t="s">
+      <c r="K403" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A404" s="3" t="s">
+    <row r="404" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J404" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B404" s="8"/>
-    </row>
-    <row r="405" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="4"/>
-      <c r="B405" s="9"/>
-    </row>
-    <row r="406" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A406" s="2" t="s">
+      <c r="K404" s="8"/>
+    </row>
+    <row r="405" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J405" s="4"/>
+      <c r="K405" s="9"/>
+    </row>
+    <row r="406" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J406" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B406" s="7" t="s">
+      <c r="K406" s="7" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="3" t="s">
+    <row r="407" spans="10:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J407" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B407" s="8"/>
-    </row>
-    <row r="408" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="4"/>
-      <c r="B408" s="9"/>
-    </row>
-    <row r="409" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A409" s="2" t="s">
+      <c r="K407" s="8"/>
+    </row>
+    <row r="408" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J408" s="4"/>
+      <c r="K408" s="9"/>
+    </row>
+    <row r="409" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J409" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B409" s="7" t="s">
+      <c r="K409" s="7" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A410" s="3" t="s">
+    <row r="410" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J410" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="8"/>
-    </row>
-    <row r="411" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="4"/>
-      <c r="B411" s="9"/>
-    </row>
-    <row r="412" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A412" s="2" t="s">
+      <c r="K410" s="8"/>
+    </row>
+    <row r="411" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J411" s="4"/>
+      <c r="K411" s="9"/>
+    </row>
+    <row r="412" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J412" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B412" s="7" t="s">
+      <c r="K412" s="7" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A413" s="3" t="s">
+    <row r="413" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J413" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B413" s="8"/>
-    </row>
-    <row r="414" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="4"/>
-      <c r="B414" s="9"/>
-    </row>
-    <row r="415" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A415" s="2" t="s">
+      <c r="K413" s="8"/>
+    </row>
+    <row r="414" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J414" s="4"/>
+      <c r="K414" s="9"/>
+    </row>
+    <row r="415" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J415" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B415" s="7" t="s">
+      <c r="K415" s="7" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A416" s="3" t="s">
+    <row r="416" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J416" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B416" s="8"/>
-    </row>
-    <row r="417" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="4"/>
-      <c r="B417" s="9"/>
-    </row>
-    <row r="418" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A418" s="2" t="s">
+      <c r="K416" s="8"/>
+    </row>
+    <row r="417" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J417" s="4"/>
+      <c r="K417" s="9"/>
+    </row>
+    <row r="418" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="J418" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B418" s="7" t="s">
+      <c r="K418" s="7" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A419" s="3" t="s">
+    <row r="419" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J419" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B419" s="8"/>
-    </row>
-    <row r="420" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="4"/>
-      <c r="B420" s="9"/>
-    </row>
-    <row r="421" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A421" s="2" t="s">
+      <c r="K419" s="8"/>
+    </row>
+    <row r="420" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J420" s="4"/>
+      <c r="K420" s="9"/>
+    </row>
+    <row r="421" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="J421" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B421" s="7" t="s">
+      <c r="K421" s="7" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A422" s="3" t="s">
+    <row r="422" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J422" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B422" s="8"/>
-    </row>
-    <row r="423" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="4"/>
-      <c r="B423" s="9"/>
-    </row>
-    <row r="424" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A424" s="2" t="s">
+      <c r="K422" s="8"/>
+    </row>
+    <row r="423" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J423" s="4"/>
+      <c r="K423" s="9"/>
+    </row>
+    <row r="424" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J424" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B424" s="7" t="s">
+      <c r="K424" s="7" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A425" s="3" t="s">
+    <row r="425" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J425" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B425" s="8"/>
-    </row>
-    <row r="426" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="4"/>
-      <c r="B426" s="9"/>
-    </row>
-    <row r="427" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A427" s="2" t="s">
+      <c r="K425" s="8"/>
+    </row>
+    <row r="426" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J426" s="4"/>
+      <c r="K426" s="9"/>
+    </row>
+    <row r="427" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="J427" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B427" s="7" t="s">
+      <c r="K427" s="7" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A428" s="3" t="s">
+    <row r="428" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J428" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B428" s="8"/>
-    </row>
-    <row r="429" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="4"/>
-      <c r="B429" s="9"/>
-    </row>
-    <row r="430" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A430" s="2" t="s">
+      <c r="K428" s="8"/>
+    </row>
+    <row r="429" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J429" s="4"/>
+      <c r="K429" s="9"/>
+    </row>
+    <row r="430" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J430" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B430" s="7" t="s">
+      <c r="K430" s="7" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A431" s="3" t="s">
+    <row r="431" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J431" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B431" s="8"/>
-    </row>
-    <row r="432" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="4"/>
-      <c r="B432" s="9"/>
-    </row>
-    <row r="433" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A433" s="2" t="s">
+      <c r="K431" s="8"/>
+    </row>
+    <row r="432" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J432" s="4"/>
+      <c r="K432" s="9"/>
+    </row>
+    <row r="433" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="J433" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B433" s="7" t="s">
+      <c r="K433" s="7" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A434" s="3" t="s">
+    <row r="434" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J434" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B434" s="8"/>
-    </row>
-    <row r="435" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="4"/>
-      <c r="B435" s="9"/>
-    </row>
-    <row r="436" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A436" s="2" t="s">
+      <c r="K434" s="8"/>
+    </row>
+    <row r="435" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J435" s="4"/>
+      <c r="K435" s="9"/>
+    </row>
+    <row r="436" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J436" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B436" s="7" t="s">
+      <c r="K436" s="7" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A437" s="3" t="s">
+    <row r="437" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J437" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B437" s="8"/>
-    </row>
-    <row r="438" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="4"/>
-      <c r="B438" s="9"/>
-    </row>
-    <row r="439" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A439" s="2" t="s">
+      <c r="K437" s="8"/>
+    </row>
+    <row r="438" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J438" s="4"/>
+      <c r="K438" s="9"/>
+    </row>
+    <row r="439" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J439" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B439" s="7" t="s">
+      <c r="K439" s="7" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A440" s="3" t="s">
+    <row r="440" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J440" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B440" s="8"/>
-    </row>
-    <row r="441" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="4"/>
-      <c r="B441" s="9"/>
-    </row>
-    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A442" s="2" t="s">
+      <c r="K440" s="8"/>
+    </row>
+    <row r="441" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J441" s="4"/>
+      <c r="K441" s="9"/>
+    </row>
+    <row r="442" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J442" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B442" s="7" t="s">
+      <c r="K442" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A443" s="3" t="s">
+    <row r="443" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J443" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B443" s="8"/>
-    </row>
-    <row r="444" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="4"/>
-      <c r="B444" s="9"/>
-    </row>
-    <row r="445" spans="1:2" ht="132" x14ac:dyDescent="0.2">
-      <c r="A445" s="2" t="s">
+      <c r="K443" s="8"/>
+    </row>
+    <row r="444" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J444" s="4"/>
+      <c r="K444" s="9"/>
+    </row>
+    <row r="445" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="J445" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B445" s="5" t="s">
+      <c r="K445" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="99" x14ac:dyDescent="0.2">
-      <c r="A446" s="3" t="s">
+    <row r="446" spans="10:11" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="J446" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B446" s="6" t="s">
+      <c r="K446" s="6" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="4"/>
-      <c r="B447" s="4"/>
-    </row>
-    <row r="448" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A448" s="2" t="s">
+    <row r="447" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J447" s="4"/>
+      <c r="K447" s="4"/>
+    </row>
+    <row r="448" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J448" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B448" s="7" t="s">
+      <c r="K448" s="7" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="3" t="s">
+    <row r="449" spans="10:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J449" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B449" s="8"/>
-    </row>
-    <row r="450" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="4"/>
-      <c r="B450" s="9"/>
-    </row>
-    <row r="451" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A451" s="2" t="s">
+      <c r="K449" s="8"/>
+    </row>
+    <row r="450" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J450" s="4"/>
+      <c r="K450" s="9"/>
+    </row>
+    <row r="451" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J451" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B451" s="7" t="s">
+      <c r="K451" s="7" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="3" t="s">
+    <row r="452" spans="10:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J452" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B452" s="8"/>
-    </row>
-    <row r="453" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="4"/>
-      <c r="B453" s="9"/>
-    </row>
-    <row r="454" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A454" s="2" t="s">
+      <c r="K452" s="8"/>
+    </row>
+    <row r="453" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J453" s="4"/>
+      <c r="K453" s="9"/>
+    </row>
+    <row r="454" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J454" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B454" s="7" t="s">
+      <c r="K454" s="7" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="3" t="s">
+    <row r="455" spans="10:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J455" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B455" s="8"/>
-    </row>
-    <row r="456" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="4"/>
-      <c r="B456" s="9"/>
-    </row>
-    <row r="457" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A457" s="2" t="s">
+      <c r="K455" s="8"/>
+    </row>
+    <row r="456" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J456" s="4"/>
+      <c r="K456" s="9"/>
+    </row>
+    <row r="457" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J457" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B457" s="7" t="s">
+      <c r="K457" s="7" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="3" t="s">
+    <row r="458" spans="10:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J458" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B458" s="8"/>
-    </row>
-    <row r="459" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="4"/>
-      <c r="B459" s="9"/>
-    </row>
-    <row r="460" spans="1:2" ht="132" x14ac:dyDescent="0.2">
-      <c r="A460" s="2" t="s">
+      <c r="K458" s="8"/>
+    </row>
+    <row r="459" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J459" s="4"/>
+      <c r="K459" s="9"/>
+    </row>
+    <row r="460" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="J460" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B460" s="5" t="s">
+      <c r="K460" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="99" x14ac:dyDescent="0.2">
-      <c r="A461" s="3" t="s">
+    <row r="461" spans="10:11" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="J461" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B461" s="6" t="s">
+      <c r="K461" s="6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="4"/>
-      <c r="B462" s="4"/>
-    </row>
-    <row r="463" spans="1:2" ht="132" x14ac:dyDescent="0.2">
-      <c r="A463" s="2" t="s">
+    <row r="462" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J462" s="4"/>
+      <c r="K462" s="4"/>
+    </row>
+    <row r="463" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="J463" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B463" s="5" t="s">
+      <c r="K463" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="99" x14ac:dyDescent="0.2">
-      <c r="A464" s="3" t="s">
+    <row r="464" spans="10:11" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="J464" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B464" s="6" t="s">
+      <c r="K464" s="6" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="4"/>
-      <c r="B465" s="4"/>
-    </row>
-    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A466" s="2" t="s">
+    <row r="465" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J465" s="4"/>
+      <c r="K465" s="4"/>
+    </row>
+    <row r="466" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J466" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B466" s="7" t="s">
+      <c r="K466" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A467" s="3" t="s">
+    <row r="467" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J467" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B467" s="8"/>
-    </row>
-    <row r="468" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="4"/>
-      <c r="B468" s="9"/>
-    </row>
-    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A469" s="2" t="s">
+      <c r="K467" s="8"/>
+    </row>
+    <row r="468" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J468" s="4"/>
+      <c r="K468" s="9"/>
+    </row>
+    <row r="469" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J469" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="K469" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A470" s="3" t="s">
+    <row r="470" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J470" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B470" s="8"/>
-    </row>
-    <row r="471" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="4"/>
-      <c r="B471" s="9"/>
-    </row>
-    <row r="472" spans="1:2" ht="132" x14ac:dyDescent="0.2">
-      <c r="A472" s="2" t="s">
+      <c r="K470" s="8"/>
+    </row>
+    <row r="471" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J471" s="4"/>
+      <c r="K471" s="9"/>
+    </row>
+    <row r="472" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="J472" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B472" s="5" t="s">
+      <c r="K472" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="99" x14ac:dyDescent="0.2">
-      <c r="A473" s="3" t="s">
+    <row r="473" spans="10:11" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="J473" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B473" s="6" t="s">
+      <c r="K473" s="6" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="4"/>
-      <c r="B474" s="4"/>
-    </row>
-    <row r="475" spans="1:2" ht="132" x14ac:dyDescent="0.2">
-      <c r="A475" s="2" t="s">
+    <row r="474" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J474" s="4"/>
+      <c r="K474" s="4"/>
+    </row>
+    <row r="475" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="J475" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B475" s="5" t="s">
+      <c r="K475" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="99" x14ac:dyDescent="0.2">
-      <c r="A476" s="3" t="s">
+    <row r="476" spans="10:11" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="J476" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B476" s="6" t="s">
+      <c r="K476" s="6" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="4"/>
-      <c r="B477" s="4"/>
-    </row>
-    <row r="478" spans="1:2" ht="132" x14ac:dyDescent="0.2">
-      <c r="A478" s="2" t="s">
+    <row r="477" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J477" s="4"/>
+      <c r="K477" s="4"/>
+    </row>
+    <row r="478" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="J478" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B478" s="5" t="s">
+      <c r="K478" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="99" x14ac:dyDescent="0.2">
-      <c r="A479" s="3" t="s">
+    <row r="479" spans="10:11" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="J479" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B479" s="6" t="s">
+      <c r="K479" s="6" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="4"/>
-      <c r="B480" s="4"/>
-    </row>
-    <row r="481" spans="1:2" ht="132" x14ac:dyDescent="0.2">
-      <c r="A481" s="2" t="s">
+    <row r="480" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J480" s="4"/>
+      <c r="K480" s="4"/>
+    </row>
+    <row r="481" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="J481" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B481" s="5" t="s">
+      <c r="K481" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A482" s="3" t="s">
+    <row r="482" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="J482" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B482" s="6" t="s">
+      <c r="K482" s="6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="4"/>
-      <c r="B483" s="4"/>
-    </row>
-    <row r="484" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A484" s="2" t="s">
+    <row r="483" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J483" s="4"/>
+      <c r="K483" s="4"/>
+    </row>
+    <row r="484" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J484" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B484" s="7" t="s">
+      <c r="K484" s="7" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="3" t="s">
+    <row r="485" spans="10:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J485" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B485" s="8"/>
-    </row>
-    <row r="486" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="4"/>
-      <c r="B486" s="9"/>
-    </row>
-    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A487" s="2" t="s">
+      <c r="K485" s="8"/>
+    </row>
+    <row r="486" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J486" s="4"/>
+      <c r="K486" s="9"/>
+    </row>
+    <row r="487" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J487" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B487" s="7" t="s">
+      <c r="K487" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A488" s="3" t="s">
+    <row r="488" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J488" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B488" s="8"/>
-    </row>
-    <row r="489" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="4"/>
-      <c r="B489" s="9"/>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A490" s="10" t="s">
+      <c r="K488" s="8"/>
+    </row>
+    <row r="489" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J489" s="4"/>
+      <c r="K489" s="9"/>
+    </row>
+    <row r="490" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J490" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B490" s="7" t="s">
+      <c r="K490" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="11"/>
-      <c r="B491" s="9"/>
-    </row>
-    <row r="492" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A492" s="2" t="s">
+    <row r="491" spans="10:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J491" s="11"/>
+      <c r="K491" s="9"/>
+    </row>
+    <row r="492" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J492" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B492" s="7" t="s">
+      <c r="K492" s="7" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="3" t="s">
+    <row r="493" spans="10:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J493" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B493" s="8"/>
-    </row>
-    <row r="494" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="4"/>
-      <c r="B494" s="9"/>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A495" s="10" t="s">
+      <c r="K493" s="8"/>
+    </row>
+    <row r="494" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J494" s="4"/>
+      <c r="K494" s="9"/>
+    </row>
+    <row r="495" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J495" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B495" s="7" t="s">
+      <c r="K495" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="11"/>
-      <c r="B496" s="9"/>
-    </row>
-    <row r="497" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A497" s="2" t="s">
+    <row r="496" spans="10:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J496" s="11"/>
+      <c r="K496" s="9"/>
+    </row>
+    <row r="497" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J497" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B497" s="7" t="s">
+      <c r="K497" s="7" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A498" s="3" t="s">
+    <row r="498" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J498" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B498" s="8"/>
-    </row>
-    <row r="499" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="4"/>
-      <c r="B499" s="9"/>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A500" s="10" t="s">
+      <c r="K498" s="8"/>
+    </row>
+    <row r="499" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J499" s="4"/>
+      <c r="K499" s="9"/>
+    </row>
+    <row r="500" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J500" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B500" s="7" t="s">
+      <c r="K500" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="11"/>
-      <c r="B501" s="9"/>
-    </row>
-    <row r="502" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A502" s="2" t="s">
+    <row r="501" spans="10:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J501" s="11"/>
+      <c r="K501" s="9"/>
+    </row>
+    <row r="502" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J502" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B502" s="7" t="s">
+      <c r="K502" s="7" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="3" t="s">
+    <row r="503" spans="10:11" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J503" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B503" s="8"/>
-    </row>
-    <row r="504" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="4"/>
-      <c r="B504" s="9"/>
-    </row>
-    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A505" s="2" t="s">
+      <c r="K503" s="8"/>
+    </row>
+    <row r="504" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J504" s="4"/>
+      <c r="K504" s="9"/>
+    </row>
+    <row r="505" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J505" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B505" s="7" t="s">
+      <c r="K505" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A506" s="3" t="s">
+    <row r="506" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J506" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B506" s="8"/>
-    </row>
-    <row r="507" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="4"/>
-      <c r="B507" s="9"/>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A508" s="10" t="s">
+      <c r="K506" s="8"/>
+    </row>
+    <row r="507" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J507" s="4"/>
+      <c r="K507" s="9"/>
+    </row>
+    <row r="508" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J508" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="B508" s="7" t="s">
+      <c r="K508" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="11"/>
-      <c r="B509" s="9"/>
-    </row>
-    <row r="510" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A510" s="2" t="s">
+    <row r="509" spans="10:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J509" s="11"/>
+      <c r="K509" s="9"/>
+    </row>
+    <row r="510" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J510" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B510" s="7" t="s">
+      <c r="K510" s="7" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A511" s="3" t="s">
+    <row r="511" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J511" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B511" s="8"/>
-    </row>
-    <row r="512" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="4"/>
-      <c r="B512" s="9"/>
-    </row>
-    <row r="513" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A513" s="2" t="s">
+      <c r="K511" s="8"/>
+    </row>
+    <row r="512" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J512" s="4"/>
+      <c r="K512" s="9"/>
+    </row>
+    <row r="513" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J513" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B513" s="7" t="s">
+      <c r="K513" s="7" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A514" s="3" t="s">
+    <row r="514" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J514" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B514" s="8"/>
-    </row>
-    <row r="515" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="4"/>
-      <c r="B515" s="9"/>
-    </row>
-    <row r="516" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A516" s="2" t="s">
+      <c r="K514" s="8"/>
+    </row>
+    <row r="515" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J515" s="4"/>
+      <c r="K515" s="9"/>
+    </row>
+    <row r="516" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J516" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B516" s="7" t="s">
+      <c r="K516" s="7" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A517" s="3" t="s">
+    <row r="517" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J517" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B517" s="8"/>
-    </row>
-    <row r="518" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="4"/>
-      <c r="B518" s="9"/>
-    </row>
-    <row r="519" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A519" s="2" t="s">
+      <c r="K517" s="8"/>
+    </row>
+    <row r="518" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J518" s="4"/>
+      <c r="K518" s="9"/>
+    </row>
+    <row r="519" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J519" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B519" s="7" t="s">
+      <c r="K519" s="7" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A520" s="3" t="s">
+    <row r="520" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J520" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B520" s="8"/>
-    </row>
-    <row r="521" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="4"/>
-      <c r="B521" s="9"/>
-    </row>
-    <row r="522" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A522" s="2" t="s">
+      <c r="K520" s="8"/>
+    </row>
+    <row r="521" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J521" s="4"/>
+      <c r="K521" s="9"/>
+    </row>
+    <row r="522" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J522" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B522" s="7" t="s">
+      <c r="K522" s="7" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A523" s="3" t="s">
+    <row r="523" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J523" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B523" s="8"/>
-    </row>
-    <row r="524" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="4"/>
-      <c r="B524" s="9"/>
-    </row>
-    <row r="525" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A525" s="2" t="s">
+      <c r="K523" s="8"/>
+    </row>
+    <row r="524" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J524" s="4"/>
+      <c r="K524" s="9"/>
+    </row>
+    <row r="525" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J525" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B525" s="7" t="s">
+      <c r="K525" s="7" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A526" s="3" t="s">
+    <row r="526" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J526" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B526" s="8"/>
-    </row>
-    <row r="527" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="4"/>
-      <c r="B527" s="9"/>
-    </row>
-    <row r="528" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A528" s="2" t="s">
+      <c r="K526" s="8"/>
+    </row>
+    <row r="527" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J527" s="4"/>
+      <c r="K527" s="9"/>
+    </row>
+    <row r="528" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J528" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B528" s="7" t="s">
+      <c r="K528" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A529" s="3" t="s">
+    <row r="529" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J529" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B529" s="8"/>
-    </row>
-    <row r="530" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="4"/>
-      <c r="B530" s="9"/>
-    </row>
-    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A531" s="2" t="s">
+      <c r="K529" s="8"/>
+    </row>
+    <row r="530" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J530" s="4"/>
+      <c r="K530" s="9"/>
+    </row>
+    <row r="531" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J531" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B531" s="7" t="s">
+      <c r="K531" s="7" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A532" s="3" t="s">
+    <row r="532" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J532" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B532" s="8"/>
-    </row>
-    <row r="533" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="4"/>
-      <c r="B533" s="9"/>
-    </row>
-    <row r="534" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A534" s="2" t="s">
+      <c r="K532" s="8"/>
+    </row>
+    <row r="533" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J533" s="4"/>
+      <c r="K533" s="9"/>
+    </row>
+    <row r="534" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="J534" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B534" s="7" t="s">
+      <c r="K534" s="7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A535" s="3" t="s">
+    <row r="535" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J535" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B535" s="8"/>
-    </row>
-    <row r="536" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="4"/>
-      <c r="B536" s="9"/>
+      <c r="K535" s="8"/>
+    </row>
+    <row r="536" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J536" s="4"/>
+      <c r="K536" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="226">
-    <mergeCell ref="B528:B530"/>
-    <mergeCell ref="B531:B533"/>
-    <mergeCell ref="B534:B536"/>
-    <mergeCell ref="B510:B512"/>
-    <mergeCell ref="B513:B515"/>
-    <mergeCell ref="B516:B518"/>
-    <mergeCell ref="B519:B521"/>
-    <mergeCell ref="B522:B524"/>
-    <mergeCell ref="B525:B527"/>
-    <mergeCell ref="A500:A501"/>
-    <mergeCell ref="B500:B501"/>
-    <mergeCell ref="B502:B504"/>
-    <mergeCell ref="B505:B507"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="B492:B494"/>
-    <mergeCell ref="A495:A496"/>
-    <mergeCell ref="B495:B496"/>
-    <mergeCell ref="B497:B499"/>
-    <mergeCell ref="B454:B456"/>
-    <mergeCell ref="B457:B459"/>
-    <mergeCell ref="B466:B468"/>
-    <mergeCell ref="B469:B471"/>
-    <mergeCell ref="B484:B486"/>
-    <mergeCell ref="B487:B489"/>
-    <mergeCell ref="B433:B435"/>
-    <mergeCell ref="B436:B438"/>
-    <mergeCell ref="B439:B441"/>
-    <mergeCell ref="B442:B444"/>
-    <mergeCell ref="B448:B450"/>
-    <mergeCell ref="B451:B453"/>
-    <mergeCell ref="B415:B417"/>
-    <mergeCell ref="B418:B420"/>
-    <mergeCell ref="B421:B423"/>
-    <mergeCell ref="B424:B426"/>
-    <mergeCell ref="B427:B429"/>
-    <mergeCell ref="B430:B432"/>
-    <mergeCell ref="B397:B399"/>
-    <mergeCell ref="B400:B402"/>
-    <mergeCell ref="B403:B405"/>
-    <mergeCell ref="B406:B408"/>
-    <mergeCell ref="B409:B411"/>
-    <mergeCell ref="B412:B414"/>
-    <mergeCell ref="B379:B381"/>
-    <mergeCell ref="B382:B384"/>
-    <mergeCell ref="B385:B387"/>
-    <mergeCell ref="B388:B390"/>
-    <mergeCell ref="B391:B393"/>
-    <mergeCell ref="B394:B396"/>
-    <mergeCell ref="A365:A366"/>
-    <mergeCell ref="B365:B366"/>
-    <mergeCell ref="B367:B369"/>
-    <mergeCell ref="B370:B372"/>
-    <mergeCell ref="B373:B375"/>
-    <mergeCell ref="B376:B378"/>
-    <mergeCell ref="B347:B349"/>
-    <mergeCell ref="B350:B352"/>
-    <mergeCell ref="B353:B355"/>
-    <mergeCell ref="B356:B358"/>
-    <mergeCell ref="B359:B361"/>
-    <mergeCell ref="B362:B364"/>
-    <mergeCell ref="B329:B331"/>
-    <mergeCell ref="B332:B334"/>
-    <mergeCell ref="B335:B337"/>
-    <mergeCell ref="B338:B340"/>
-    <mergeCell ref="B341:B343"/>
-    <mergeCell ref="B344:B346"/>
-    <mergeCell ref="B311:B313"/>
-    <mergeCell ref="B314:B316"/>
-    <mergeCell ref="B317:B319"/>
-    <mergeCell ref="B320:B322"/>
-    <mergeCell ref="B323:B325"/>
-    <mergeCell ref="B326:B328"/>
-    <mergeCell ref="B293:B295"/>
-    <mergeCell ref="B296:B298"/>
-    <mergeCell ref="B299:B301"/>
-    <mergeCell ref="B302:B304"/>
-    <mergeCell ref="B305:B307"/>
-    <mergeCell ref="B308:B310"/>
-    <mergeCell ref="B275:B277"/>
-    <mergeCell ref="B278:B280"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="B284:B286"/>
-    <mergeCell ref="B287:B289"/>
-    <mergeCell ref="B290:B292"/>
-    <mergeCell ref="B257:B259"/>
-    <mergeCell ref="B260:B262"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="B266:B268"/>
-    <mergeCell ref="B269:B271"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="B245:B247"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="B251:B253"/>
-    <mergeCell ref="B254:B256"/>
-    <mergeCell ref="B221:B223"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="B230:B232"/>
-    <mergeCell ref="B233:B235"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="K62:K64"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="K71:K73"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="K92:K94"/>
+    <mergeCell ref="K95:K97"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="K101:K103"/>
+    <mergeCell ref="K104:K106"/>
+    <mergeCell ref="K107:K109"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="K128:K130"/>
+    <mergeCell ref="K131:K133"/>
+    <mergeCell ref="K134:K136"/>
+    <mergeCell ref="K137:K139"/>
+    <mergeCell ref="K140:K142"/>
+    <mergeCell ref="K143:K145"/>
+    <mergeCell ref="K110:K112"/>
+    <mergeCell ref="K113:K115"/>
+    <mergeCell ref="K116:K118"/>
+    <mergeCell ref="K119:K121"/>
+    <mergeCell ref="K122:K124"/>
+    <mergeCell ref="K125:K127"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="J156:J157"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="J146:J147"/>
+    <mergeCell ref="K146:K147"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="K164:K165"/>
+    <mergeCell ref="K166:K168"/>
+    <mergeCell ref="J169:J170"/>
+    <mergeCell ref="K169:K170"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="J158:J159"/>
+    <mergeCell ref="K158:K159"/>
+    <mergeCell ref="J160:J161"/>
+    <mergeCell ref="K160:K161"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="K162:K163"/>
+    <mergeCell ref="J179:J180"/>
+    <mergeCell ref="K179:K180"/>
+    <mergeCell ref="J181:J182"/>
+    <mergeCell ref="K181:K182"/>
+    <mergeCell ref="J183:J184"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="J175:J176"/>
+    <mergeCell ref="K175:K176"/>
+    <mergeCell ref="J177:J178"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="J191:J192"/>
+    <mergeCell ref="K191:K192"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="J195:J196"/>
+    <mergeCell ref="K195:K196"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="J187:J188"/>
+    <mergeCell ref="K187:K188"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="J203:J204"/>
+    <mergeCell ref="K203:K204"/>
+    <mergeCell ref="J205:J206"/>
+    <mergeCell ref="K205:K206"/>
+    <mergeCell ref="J207:J208"/>
+    <mergeCell ref="K207:K208"/>
+    <mergeCell ref="J197:J198"/>
+    <mergeCell ref="K197:K198"/>
+    <mergeCell ref="J199:J200"/>
+    <mergeCell ref="K199:K200"/>
+    <mergeCell ref="J201:J202"/>
+    <mergeCell ref="K201:K202"/>
+    <mergeCell ref="J215:J216"/>
+    <mergeCell ref="K215:K216"/>
+    <mergeCell ref="J217:J218"/>
+    <mergeCell ref="K217:K218"/>
+    <mergeCell ref="J219:J220"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="J209:J210"/>
+    <mergeCell ref="K209:K210"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="K239:K241"/>
+    <mergeCell ref="K242:K244"/>
+    <mergeCell ref="K245:K247"/>
+    <mergeCell ref="K248:K250"/>
+    <mergeCell ref="K251:K253"/>
+    <mergeCell ref="K254:K256"/>
+    <mergeCell ref="K221:K223"/>
+    <mergeCell ref="K224:K226"/>
+    <mergeCell ref="K227:K229"/>
+    <mergeCell ref="K230:K232"/>
+    <mergeCell ref="K233:K235"/>
+    <mergeCell ref="K236:K238"/>
+    <mergeCell ref="K275:K277"/>
+    <mergeCell ref="K278:K280"/>
+    <mergeCell ref="K281:K283"/>
+    <mergeCell ref="K284:K286"/>
+    <mergeCell ref="K287:K289"/>
+    <mergeCell ref="K290:K292"/>
+    <mergeCell ref="K257:K259"/>
+    <mergeCell ref="K260:K262"/>
+    <mergeCell ref="K263:K265"/>
+    <mergeCell ref="K266:K268"/>
+    <mergeCell ref="K269:K271"/>
+    <mergeCell ref="K272:K274"/>
+    <mergeCell ref="K311:K313"/>
+    <mergeCell ref="K314:K316"/>
+    <mergeCell ref="K317:K319"/>
+    <mergeCell ref="K320:K322"/>
+    <mergeCell ref="K323:K325"/>
+    <mergeCell ref="K326:K328"/>
+    <mergeCell ref="K293:K295"/>
+    <mergeCell ref="K296:K298"/>
+    <mergeCell ref="K299:K301"/>
+    <mergeCell ref="K302:K304"/>
+    <mergeCell ref="K305:K307"/>
+    <mergeCell ref="K308:K310"/>
+    <mergeCell ref="K347:K349"/>
+    <mergeCell ref="K350:K352"/>
+    <mergeCell ref="K353:K355"/>
+    <mergeCell ref="K356:K358"/>
+    <mergeCell ref="K359:K361"/>
+    <mergeCell ref="K362:K364"/>
+    <mergeCell ref="K329:K331"/>
+    <mergeCell ref="K332:K334"/>
+    <mergeCell ref="K335:K337"/>
+    <mergeCell ref="K338:K340"/>
+    <mergeCell ref="K341:K343"/>
+    <mergeCell ref="K344:K346"/>
+    <mergeCell ref="K379:K381"/>
+    <mergeCell ref="K382:K384"/>
+    <mergeCell ref="K385:K387"/>
+    <mergeCell ref="K388:K390"/>
+    <mergeCell ref="K391:K393"/>
+    <mergeCell ref="K394:K396"/>
+    <mergeCell ref="J365:J366"/>
+    <mergeCell ref="K365:K366"/>
+    <mergeCell ref="K367:K369"/>
+    <mergeCell ref="K370:K372"/>
+    <mergeCell ref="K373:K375"/>
+    <mergeCell ref="K376:K378"/>
+    <mergeCell ref="K415:K417"/>
+    <mergeCell ref="K418:K420"/>
+    <mergeCell ref="K421:K423"/>
+    <mergeCell ref="K424:K426"/>
+    <mergeCell ref="K427:K429"/>
+    <mergeCell ref="K430:K432"/>
+    <mergeCell ref="K397:K399"/>
+    <mergeCell ref="K400:K402"/>
+    <mergeCell ref="K403:K405"/>
+    <mergeCell ref="K406:K408"/>
+    <mergeCell ref="K409:K411"/>
+    <mergeCell ref="K412:K414"/>
+    <mergeCell ref="K454:K456"/>
+    <mergeCell ref="K457:K459"/>
+    <mergeCell ref="K466:K468"/>
+    <mergeCell ref="K469:K471"/>
+    <mergeCell ref="K484:K486"/>
+    <mergeCell ref="K487:K489"/>
+    <mergeCell ref="K433:K435"/>
+    <mergeCell ref="K436:K438"/>
+    <mergeCell ref="K439:K441"/>
+    <mergeCell ref="K442:K444"/>
+    <mergeCell ref="K448:K450"/>
+    <mergeCell ref="K451:K453"/>
+    <mergeCell ref="J500:J501"/>
+    <mergeCell ref="K500:K501"/>
+    <mergeCell ref="K502:K504"/>
+    <mergeCell ref="K505:K507"/>
+    <mergeCell ref="J508:J509"/>
+    <mergeCell ref="K508:K509"/>
+    <mergeCell ref="J490:J491"/>
+    <mergeCell ref="K490:K491"/>
+    <mergeCell ref="K492:K494"/>
+    <mergeCell ref="J495:J496"/>
+    <mergeCell ref="K495:K496"/>
+    <mergeCell ref="K497:K499"/>
+    <mergeCell ref="K528:K530"/>
+    <mergeCell ref="K531:K533"/>
+    <mergeCell ref="K534:K536"/>
+    <mergeCell ref="K510:K512"/>
+    <mergeCell ref="K513:K515"/>
+    <mergeCell ref="K516:K518"/>
+    <mergeCell ref="K519:K521"/>
+    <mergeCell ref="K522:K524"/>
+    <mergeCell ref="K525:K527"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/饥荒百科全书CSharp/VK值.xlsx
+++ b/饥荒百科全书CSharp/VK值.xlsx
@@ -719,9 +719,6 @@
   </si>
   <si>
     <t>0x60</t>
-  </si>
-  <si>
-    <t>Numeric keypad 0 key</t>
   </si>
   <si>
     <t>VK_NUMPAD1</t>
@@ -1638,6 +1635,10 @@
   </si>
   <si>
     <t>Clear key</t>
+  </si>
+  <si>
+    <t>Numeric keypad 0 key</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2134,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J1:K536"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="J318" sqref="J318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3561,7 +3562,7 @@
         <v>222</v>
       </c>
       <c r="K236" s="7" t="s">
-        <v>224</v>
+        <v>504</v>
       </c>
     </row>
     <row r="237" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
@@ -3576,15 +3577,15 @@
     </row>
     <row r="239" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J239" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K239" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="240" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J240" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K240" s="8"/>
     </row>
@@ -3594,15 +3595,15 @@
     </row>
     <row r="242" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J242" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K242" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="243" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J243" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K243" s="8"/>
     </row>
@@ -3612,15 +3613,15 @@
     </row>
     <row r="245" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J245" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K245" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="246" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J246" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K246" s="8"/>
     </row>
@@ -3630,15 +3631,15 @@
     </row>
     <row r="248" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J248" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K248" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="249" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J249" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K249" s="8"/>
     </row>
@@ -3648,15 +3649,15 @@
     </row>
     <row r="251" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J251" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K251" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="252" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J252" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K252" s="8"/>
     </row>
@@ -3666,15 +3667,15 @@
     </row>
     <row r="254" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J254" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K254" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="255" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J255" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K255" s="8"/>
     </row>
@@ -3684,15 +3685,15 @@
     </row>
     <row r="257" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J257" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K257" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="258" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J258" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K258" s="8"/>
     </row>
@@ -3702,15 +3703,15 @@
     </row>
     <row r="260" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J260" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K260" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="261" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J261" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K261" s="8"/>
     </row>
@@ -3720,15 +3721,15 @@
     </row>
     <row r="263" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J263" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K263" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="264" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J264" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K264" s="8"/>
     </row>
@@ -3738,15 +3739,15 @@
     </row>
     <row r="266" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J266" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K266" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="267" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J267" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K267" s="8"/>
     </row>
@@ -3756,15 +3757,15 @@
     </row>
     <row r="269" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J269" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K269" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="270" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J270" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K270" s="8"/>
     </row>
@@ -3774,15 +3775,15 @@
     </row>
     <row r="272" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J272" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K272" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="273" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J273" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K273" s="8"/>
     </row>
@@ -3792,15 +3793,15 @@
     </row>
     <row r="275" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J275" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K275" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="276" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J276" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K276" s="8"/>
     </row>
@@ -3810,15 +3811,15 @@
     </row>
     <row r="278" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J278" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K278" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="279" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J279" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K279" s="8"/>
     </row>
@@ -3828,15 +3829,15 @@
     </row>
     <row r="281" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J281" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K281" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="282" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J282" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K282" s="8"/>
     </row>
@@ -3846,15 +3847,15 @@
     </row>
     <row r="284" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J284" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K284" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="285" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J285" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K285" s="8"/>
     </row>
@@ -3864,15 +3865,15 @@
     </row>
     <row r="287" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J287" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K287" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="288" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J288" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K288" s="8"/>
     </row>
@@ -3882,15 +3883,15 @@
     </row>
     <row r="290" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J290" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K290" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="291" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J291" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K291" s="8"/>
     </row>
@@ -3900,15 +3901,15 @@
     </row>
     <row r="293" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J293" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K293" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="294" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J294" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K294" s="8"/>
     </row>
@@ -3918,15 +3919,15 @@
     </row>
     <row r="296" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J296" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K296" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="297" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J297" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K297" s="8"/>
     </row>
@@ -3936,15 +3937,15 @@
     </row>
     <row r="299" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J299" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K299" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="300" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J300" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K300" s="8"/>
     </row>
@@ -3954,15 +3955,15 @@
     </row>
     <row r="302" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J302" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K302" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="303" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J303" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K303" s="8"/>
     </row>
@@ -3972,15 +3973,15 @@
     </row>
     <row r="305" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J305" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K305" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="306" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J306" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K306" s="8"/>
     </row>
@@ -3990,15 +3991,15 @@
     </row>
     <row r="308" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J308" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K308" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="309" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J309" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K309" s="8"/>
     </row>
@@ -4008,15 +4009,15 @@
     </row>
     <row r="311" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J311" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K311" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="312" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J312" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K312" s="8"/>
     </row>
@@ -4026,15 +4027,15 @@
     </row>
     <row r="314" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J314" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K314" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="315" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J315" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K315" s="8"/>
     </row>
@@ -4044,15 +4045,15 @@
     </row>
     <row r="317" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J317" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K317" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="318" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J318" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K318" s="8"/>
     </row>
@@ -4062,15 +4063,15 @@
     </row>
     <row r="320" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J320" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K320" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="321" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J321" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K321" s="8"/>
     </row>
@@ -4080,15 +4081,15 @@
     </row>
     <row r="323" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J323" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K323" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="324" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J324" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K324" s="8"/>
     </row>
@@ -4098,15 +4099,15 @@
     </row>
     <row r="326" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J326" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K326" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="327" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J327" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K327" s="8"/>
     </row>
@@ -4116,15 +4117,15 @@
     </row>
     <row r="329" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J329" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K329" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="330" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J330" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K330" s="8"/>
     </row>
@@ -4134,15 +4135,15 @@
     </row>
     <row r="332" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J332" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K332" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="333" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J333" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K333" s="8"/>
     </row>
@@ -4152,15 +4153,15 @@
     </row>
     <row r="335" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J335" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K335" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="336" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J336" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K336" s="8"/>
     </row>
@@ -4170,15 +4171,15 @@
     </row>
     <row r="338" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J338" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K338" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="339" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J339" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K339" s="8"/>
     </row>
@@ -4188,15 +4189,15 @@
     </row>
     <row r="341" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J341" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K341" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="342" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J342" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K342" s="8"/>
     </row>
@@ -4206,15 +4207,15 @@
     </row>
     <row r="344" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J344" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K344" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="345" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J345" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K345" s="8"/>
     </row>
@@ -4224,15 +4225,15 @@
     </row>
     <row r="347" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J347" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K347" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="348" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J348" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K348" s="8"/>
     </row>
@@ -4242,15 +4243,15 @@
     </row>
     <row r="350" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J350" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K350" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="351" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J351" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K351" s="8"/>
     </row>
@@ -4260,15 +4261,15 @@
     </row>
     <row r="353" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J353" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K353" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="354" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J354" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K354" s="8"/>
     </row>
@@ -4281,12 +4282,12 @@
         <v>20</v>
       </c>
       <c r="K356" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="357" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J357" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K357" s="8"/>
     </row>
@@ -4296,15 +4297,15 @@
     </row>
     <row r="359" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J359" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K359" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="360" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J360" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K360" s="8"/>
     </row>
@@ -4314,15 +4315,15 @@
     </row>
     <row r="362" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J362" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K362" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="363" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J363" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K363" s="8"/>
     </row>
@@ -4332,10 +4333,10 @@
     </row>
     <row r="365" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J365" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="K365" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K365" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="366" spans="10:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4347,12 +4348,12 @@
         <v>20</v>
       </c>
       <c r="K367" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="368" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J368" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K368" s="8"/>
     </row>
@@ -4362,15 +4363,15 @@
     </row>
     <row r="370" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J370" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K370" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="371" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J371" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K371" s="8"/>
     </row>
@@ -4380,15 +4381,15 @@
     </row>
     <row r="373" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J373" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K373" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="374" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J374" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K374" s="8"/>
     </row>
@@ -4398,15 +4399,15 @@
     </row>
     <row r="376" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J376" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K376" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="377" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J377" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K377" s="8"/>
     </row>
@@ -4416,15 +4417,15 @@
     </row>
     <row r="379" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J379" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K379" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="380" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J380" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K380" s="8"/>
     </row>
@@ -4434,15 +4435,15 @@
     </row>
     <row r="382" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J382" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K382" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="383" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J383" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K383" s="8"/>
     </row>
@@ -4452,15 +4453,15 @@
     </row>
     <row r="385" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J385" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K385" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="386" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J386" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K386" s="8"/>
     </row>
@@ -4470,15 +4471,15 @@
     </row>
     <row r="388" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J388" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K388" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="389" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J389" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K389" s="8"/>
     </row>
@@ -4488,15 +4489,15 @@
     </row>
     <row r="391" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
       <c r="J391" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K391" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="392" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J392" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K392" s="8"/>
     </row>
@@ -4506,15 +4507,15 @@
     </row>
     <row r="394" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
       <c r="J394" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K394" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="395" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J395" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K395" s="8"/>
     </row>
@@ -4524,15 +4525,15 @@
     </row>
     <row r="397" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J397" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K397" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="398" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J398" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K398" s="8"/>
     </row>
@@ -4542,15 +4543,15 @@
     </row>
     <row r="400" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
       <c r="J400" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K400" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="401" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J401" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K401" s="8"/>
     </row>
@@ -4560,15 +4561,15 @@
     </row>
     <row r="403" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
       <c r="J403" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K403" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="404" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J404" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K404" s="8"/>
     </row>
@@ -4578,15 +4579,15 @@
     </row>
     <row r="406" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J406" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K406" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="407" spans="10:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J407" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K407" s="8"/>
     </row>
@@ -4596,15 +4597,15 @@
     </row>
     <row r="409" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J409" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K409" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="410" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J410" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K410" s="8"/>
     </row>
@@ -4614,15 +4615,15 @@
     </row>
     <row r="412" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J412" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K412" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="413" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J413" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K413" s="8"/>
     </row>
@@ -4632,15 +4633,15 @@
     </row>
     <row r="415" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J415" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K415" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="416" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J416" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K416" s="8"/>
     </row>
@@ -4650,15 +4651,15 @@
     </row>
     <row r="418" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
       <c r="J418" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K418" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="419" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J419" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K419" s="8"/>
     </row>
@@ -4668,15 +4669,15 @@
     </row>
     <row r="421" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
       <c r="J421" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K421" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="422" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J422" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K422" s="8"/>
     </row>
@@ -4686,15 +4687,15 @@
     </row>
     <row r="424" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J424" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K424" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="425" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J425" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K425" s="8"/>
     </row>
@@ -4704,15 +4705,15 @@
     </row>
     <row r="427" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
       <c r="J427" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K427" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="428" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J428" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K428" s="8"/>
     </row>
@@ -4722,15 +4723,15 @@
     </row>
     <row r="430" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J430" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K430" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="431" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J431" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K431" s="8"/>
     </row>
@@ -4740,15 +4741,15 @@
     </row>
     <row r="433" spans="10:11" ht="32.4" x14ac:dyDescent="0.25">
       <c r="J433" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K433" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="434" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J434" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K434" s="8"/>
     </row>
@@ -4758,15 +4759,15 @@
     </row>
     <row r="436" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J436" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K436" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="437" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J437" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K437" s="8"/>
     </row>
@@ -4776,15 +4777,15 @@
     </row>
     <row r="439" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J439" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K439" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="440" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J440" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K440" s="8"/>
     </row>
@@ -4802,7 +4803,7 @@
     </row>
     <row r="443" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J443" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K443" s="8"/>
     </row>
@@ -4812,18 +4813,18 @@
     </row>
     <row r="445" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
       <c r="J445" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K445" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="446" spans="10:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="J446" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K446" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="447" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -4832,15 +4833,15 @@
     </row>
     <row r="448" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J448" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K448" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="449" spans="10:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J449" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K449" s="8"/>
     </row>
@@ -4850,15 +4851,15 @@
     </row>
     <row r="451" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J451" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K451" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="452" spans="10:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J452" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K452" s="8"/>
     </row>
@@ -4868,15 +4869,15 @@
     </row>
     <row r="454" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J454" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K454" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="455" spans="10:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J455" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K455" s="8"/>
     </row>
@@ -4886,15 +4887,15 @@
     </row>
     <row r="457" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J457" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K457" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="458" spans="10:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J458" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K458" s="8"/>
     </row>
@@ -4904,18 +4905,18 @@
     </row>
     <row r="460" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
       <c r="J460" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K460" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="461" spans="10:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="J461" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="K461" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="K461" s="6" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="462" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -4924,18 +4925,18 @@
     </row>
     <row r="463" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
       <c r="J463" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K463" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="464" spans="10:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="J464" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K464" s="6" t="s">
         <v>446</v>
-      </c>
-      <c r="K464" s="6" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="465" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -4952,7 +4953,7 @@
     </row>
     <row r="467" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J467" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K467" s="8"/>
     </row>
@@ -4965,12 +4966,12 @@
         <v>20</v>
       </c>
       <c r="K469" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="470" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J470" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K470" s="8"/>
     </row>
@@ -4980,18 +4981,18 @@
     </row>
     <row r="472" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
       <c r="J472" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K472" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="473" spans="10:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="J473" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="K473" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="K473" s="6" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="474" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -5000,18 +5001,18 @@
     </row>
     <row r="475" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
       <c r="J475" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K475" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="476" spans="10:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="J476" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="K476" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="K476" s="6" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="477" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -5020,18 +5021,18 @@
     </row>
     <row r="478" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
       <c r="J478" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K478" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="479" spans="10:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="J479" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="K479" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="K479" s="6" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="480" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -5040,18 +5041,18 @@
     </row>
     <row r="481" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
       <c r="J481" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K481" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="482" spans="10:11" ht="62.4" x14ac:dyDescent="0.25">
       <c r="J482" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="K482" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="K482" s="6" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="483" spans="10:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -5060,15 +5061,15 @@
     </row>
     <row r="484" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J484" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K484" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="485" spans="10:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J485" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K485" s="8"/>
     </row>
@@ -5086,7 +5087,7 @@
     </row>
     <row r="488" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J488" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K488" s="8"/>
     </row>
@@ -5096,10 +5097,10 @@
     </row>
     <row r="490" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J490" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K490" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="491" spans="10:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5108,15 +5109,15 @@
     </row>
     <row r="492" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J492" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K492" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="493" spans="10:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J493" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K493" s="8"/>
     </row>
@@ -5126,10 +5127,10 @@
     </row>
     <row r="495" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J495" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K495" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="496" spans="10:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5138,15 +5139,15 @@
     </row>
     <row r="497" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J497" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K497" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="498" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J498" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K498" s="8"/>
     </row>
@@ -5156,10 +5157,10 @@
     </row>
     <row r="500" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J500" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K500" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="501" spans="10:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5168,15 +5169,15 @@
     </row>
     <row r="502" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J502" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K502" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="503" spans="10:11" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J503" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K503" s="8"/>
     </row>
@@ -5189,12 +5190,12 @@
         <v>20</v>
       </c>
       <c r="K505" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="506" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J506" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K506" s="8"/>
     </row>
@@ -5204,10 +5205,10 @@
     </row>
     <row r="508" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J508" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K508" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="509" spans="10:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5216,15 +5217,15 @@
     </row>
     <row r="510" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J510" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K510" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="511" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J511" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K511" s="8"/>
     </row>
@@ -5234,15 +5235,15 @@
     </row>
     <row r="513" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J513" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K513" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="514" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J514" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K514" s="8"/>
     </row>
@@ -5252,15 +5253,15 @@
     </row>
     <row r="516" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J516" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K516" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="517" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J517" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K517" s="8"/>
     </row>
@@ -5270,15 +5271,15 @@
     </row>
     <row r="519" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J519" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K519" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="520" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J520" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K520" s="8"/>
     </row>
@@ -5288,15 +5289,15 @@
     </row>
     <row r="522" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J522" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K522" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="523" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J523" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K523" s="8"/>
     </row>
@@ -5306,15 +5307,15 @@
     </row>
     <row r="525" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J525" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K525" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="526" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J526" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K526" s="8"/>
     </row>
@@ -5324,7 +5325,7 @@
     </row>
     <row r="528" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J528" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K528" s="7" t="s">
         <v>30</v>
@@ -5332,7 +5333,7 @@
     </row>
     <row r="529" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J529" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K529" s="8"/>
     </row>
@@ -5342,15 +5343,15 @@
     </row>
     <row r="531" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J531" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K531" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="532" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J532" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K532" s="8"/>
     </row>
@@ -5360,15 +5361,15 @@
     </row>
     <row r="534" spans="10:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J534" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K534" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="535" spans="10:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="J535" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K535" s="8"/>
     </row>
@@ -5378,66 +5379,159 @@
     </row>
   </sheetData>
   <mergeCells count="226">
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="K62:K64"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="K71:K73"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="K92:K94"/>
-    <mergeCell ref="K95:K97"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="K101:K103"/>
-    <mergeCell ref="K104:K106"/>
-    <mergeCell ref="K107:K109"/>
-    <mergeCell ref="K74:K76"/>
-    <mergeCell ref="K77:K79"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="K128:K130"/>
-    <mergeCell ref="K131:K133"/>
-    <mergeCell ref="K134:K136"/>
-    <mergeCell ref="K137:K139"/>
-    <mergeCell ref="K140:K142"/>
-    <mergeCell ref="K143:K145"/>
-    <mergeCell ref="K110:K112"/>
-    <mergeCell ref="K113:K115"/>
-    <mergeCell ref="K116:K118"/>
-    <mergeCell ref="K119:K121"/>
-    <mergeCell ref="K122:K124"/>
-    <mergeCell ref="K125:K127"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="J154:J155"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="J156:J157"/>
-    <mergeCell ref="K156:K157"/>
-    <mergeCell ref="J146:J147"/>
-    <mergeCell ref="K146:K147"/>
-    <mergeCell ref="J148:J149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="K528:K530"/>
+    <mergeCell ref="K531:K533"/>
+    <mergeCell ref="K534:K536"/>
+    <mergeCell ref="K510:K512"/>
+    <mergeCell ref="K513:K515"/>
+    <mergeCell ref="K516:K518"/>
+    <mergeCell ref="K519:K521"/>
+    <mergeCell ref="K522:K524"/>
+    <mergeCell ref="K525:K527"/>
+    <mergeCell ref="J500:J501"/>
+    <mergeCell ref="K500:K501"/>
+    <mergeCell ref="K502:K504"/>
+    <mergeCell ref="K505:K507"/>
+    <mergeCell ref="J508:J509"/>
+    <mergeCell ref="K508:K509"/>
+    <mergeCell ref="J490:J491"/>
+    <mergeCell ref="K490:K491"/>
+    <mergeCell ref="K492:K494"/>
+    <mergeCell ref="J495:J496"/>
+    <mergeCell ref="K495:K496"/>
+    <mergeCell ref="K497:K499"/>
+    <mergeCell ref="K454:K456"/>
+    <mergeCell ref="K457:K459"/>
+    <mergeCell ref="K466:K468"/>
+    <mergeCell ref="K469:K471"/>
+    <mergeCell ref="K484:K486"/>
+    <mergeCell ref="K487:K489"/>
+    <mergeCell ref="K433:K435"/>
+    <mergeCell ref="K436:K438"/>
+    <mergeCell ref="K439:K441"/>
+    <mergeCell ref="K442:K444"/>
+    <mergeCell ref="K448:K450"/>
+    <mergeCell ref="K451:K453"/>
+    <mergeCell ref="K415:K417"/>
+    <mergeCell ref="K418:K420"/>
+    <mergeCell ref="K421:K423"/>
+    <mergeCell ref="K424:K426"/>
+    <mergeCell ref="K427:K429"/>
+    <mergeCell ref="K430:K432"/>
+    <mergeCell ref="K397:K399"/>
+    <mergeCell ref="K400:K402"/>
+    <mergeCell ref="K403:K405"/>
+    <mergeCell ref="K406:K408"/>
+    <mergeCell ref="K409:K411"/>
+    <mergeCell ref="K412:K414"/>
+    <mergeCell ref="K379:K381"/>
+    <mergeCell ref="K382:K384"/>
+    <mergeCell ref="K385:K387"/>
+    <mergeCell ref="K388:K390"/>
+    <mergeCell ref="K391:K393"/>
+    <mergeCell ref="K394:K396"/>
+    <mergeCell ref="J365:J366"/>
+    <mergeCell ref="K365:K366"/>
+    <mergeCell ref="K367:K369"/>
+    <mergeCell ref="K370:K372"/>
+    <mergeCell ref="K373:K375"/>
+    <mergeCell ref="K376:K378"/>
+    <mergeCell ref="K347:K349"/>
+    <mergeCell ref="K350:K352"/>
+    <mergeCell ref="K353:K355"/>
+    <mergeCell ref="K356:K358"/>
+    <mergeCell ref="K359:K361"/>
+    <mergeCell ref="K362:K364"/>
+    <mergeCell ref="K329:K331"/>
+    <mergeCell ref="K332:K334"/>
+    <mergeCell ref="K335:K337"/>
+    <mergeCell ref="K338:K340"/>
+    <mergeCell ref="K341:K343"/>
+    <mergeCell ref="K344:K346"/>
+    <mergeCell ref="K311:K313"/>
+    <mergeCell ref="K314:K316"/>
+    <mergeCell ref="K317:K319"/>
+    <mergeCell ref="K320:K322"/>
+    <mergeCell ref="K323:K325"/>
+    <mergeCell ref="K326:K328"/>
+    <mergeCell ref="K293:K295"/>
+    <mergeCell ref="K296:K298"/>
+    <mergeCell ref="K299:K301"/>
+    <mergeCell ref="K302:K304"/>
+    <mergeCell ref="K305:K307"/>
+    <mergeCell ref="K308:K310"/>
+    <mergeCell ref="K275:K277"/>
+    <mergeCell ref="K278:K280"/>
+    <mergeCell ref="K281:K283"/>
+    <mergeCell ref="K284:K286"/>
+    <mergeCell ref="K287:K289"/>
+    <mergeCell ref="K290:K292"/>
+    <mergeCell ref="K257:K259"/>
+    <mergeCell ref="K260:K262"/>
+    <mergeCell ref="K263:K265"/>
+    <mergeCell ref="K266:K268"/>
+    <mergeCell ref="K269:K271"/>
+    <mergeCell ref="K272:K274"/>
+    <mergeCell ref="K239:K241"/>
+    <mergeCell ref="K242:K244"/>
+    <mergeCell ref="K245:K247"/>
+    <mergeCell ref="K248:K250"/>
+    <mergeCell ref="K251:K253"/>
+    <mergeCell ref="K254:K256"/>
+    <mergeCell ref="K221:K223"/>
+    <mergeCell ref="K224:K226"/>
+    <mergeCell ref="K227:K229"/>
+    <mergeCell ref="K230:K232"/>
+    <mergeCell ref="K233:K235"/>
+    <mergeCell ref="K236:K238"/>
+    <mergeCell ref="J215:J216"/>
+    <mergeCell ref="K215:K216"/>
+    <mergeCell ref="J217:J218"/>
+    <mergeCell ref="K217:K218"/>
+    <mergeCell ref="J219:J220"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="J209:J210"/>
+    <mergeCell ref="K209:K210"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="J203:J204"/>
+    <mergeCell ref="K203:K204"/>
+    <mergeCell ref="J205:J206"/>
+    <mergeCell ref="K205:K206"/>
+    <mergeCell ref="J207:J208"/>
+    <mergeCell ref="K207:K208"/>
+    <mergeCell ref="J197:J198"/>
+    <mergeCell ref="K197:K198"/>
+    <mergeCell ref="J199:J200"/>
+    <mergeCell ref="K199:K200"/>
+    <mergeCell ref="J201:J202"/>
+    <mergeCell ref="K201:K202"/>
+    <mergeCell ref="J191:J192"/>
+    <mergeCell ref="K191:K192"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="J195:J196"/>
+    <mergeCell ref="K195:K196"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="J187:J188"/>
+    <mergeCell ref="K187:K188"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="J179:J180"/>
+    <mergeCell ref="K179:K180"/>
+    <mergeCell ref="J181:J182"/>
+    <mergeCell ref="K181:K182"/>
+    <mergeCell ref="J183:J184"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="J175:J176"/>
+    <mergeCell ref="K175:K176"/>
+    <mergeCell ref="J177:J178"/>
+    <mergeCell ref="K177:K178"/>
     <mergeCell ref="J164:J165"/>
     <mergeCell ref="K164:K165"/>
     <mergeCell ref="K166:K168"/>
@@ -5451,159 +5545,66 @@
     <mergeCell ref="K160:K161"/>
     <mergeCell ref="J162:J163"/>
     <mergeCell ref="K162:K163"/>
-    <mergeCell ref="J179:J180"/>
-    <mergeCell ref="K179:K180"/>
-    <mergeCell ref="J181:J182"/>
-    <mergeCell ref="K181:K182"/>
-    <mergeCell ref="J183:J184"/>
-    <mergeCell ref="K183:K184"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="K173:K174"/>
-    <mergeCell ref="J175:J176"/>
-    <mergeCell ref="K175:K176"/>
-    <mergeCell ref="J177:J178"/>
-    <mergeCell ref="K177:K178"/>
-    <mergeCell ref="J191:J192"/>
-    <mergeCell ref="K191:K192"/>
-    <mergeCell ref="J193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="J195:J196"/>
-    <mergeCell ref="K195:K196"/>
-    <mergeCell ref="J185:J186"/>
-    <mergeCell ref="K185:K186"/>
-    <mergeCell ref="J187:J188"/>
-    <mergeCell ref="K187:K188"/>
-    <mergeCell ref="J189:J190"/>
-    <mergeCell ref="K189:K190"/>
-    <mergeCell ref="J203:J204"/>
-    <mergeCell ref="K203:K204"/>
-    <mergeCell ref="J205:J206"/>
-    <mergeCell ref="K205:K206"/>
-    <mergeCell ref="J207:J208"/>
-    <mergeCell ref="K207:K208"/>
-    <mergeCell ref="J197:J198"/>
-    <mergeCell ref="K197:K198"/>
-    <mergeCell ref="J199:J200"/>
-    <mergeCell ref="K199:K200"/>
-    <mergeCell ref="J201:J202"/>
-    <mergeCell ref="K201:K202"/>
-    <mergeCell ref="J215:J216"/>
-    <mergeCell ref="K215:K216"/>
-    <mergeCell ref="J217:J218"/>
-    <mergeCell ref="K217:K218"/>
-    <mergeCell ref="J219:J220"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="J209:J210"/>
-    <mergeCell ref="K209:K210"/>
-    <mergeCell ref="J211:J212"/>
-    <mergeCell ref="K211:K212"/>
-    <mergeCell ref="J213:J214"/>
-    <mergeCell ref="K213:K214"/>
-    <mergeCell ref="K239:K241"/>
-    <mergeCell ref="K242:K244"/>
-    <mergeCell ref="K245:K247"/>
-    <mergeCell ref="K248:K250"/>
-    <mergeCell ref="K251:K253"/>
-    <mergeCell ref="K254:K256"/>
-    <mergeCell ref="K221:K223"/>
-    <mergeCell ref="K224:K226"/>
-    <mergeCell ref="K227:K229"/>
-    <mergeCell ref="K230:K232"/>
-    <mergeCell ref="K233:K235"/>
-    <mergeCell ref="K236:K238"/>
-    <mergeCell ref="K275:K277"/>
-    <mergeCell ref="K278:K280"/>
-    <mergeCell ref="K281:K283"/>
-    <mergeCell ref="K284:K286"/>
-    <mergeCell ref="K287:K289"/>
-    <mergeCell ref="K290:K292"/>
-    <mergeCell ref="K257:K259"/>
-    <mergeCell ref="K260:K262"/>
-    <mergeCell ref="K263:K265"/>
-    <mergeCell ref="K266:K268"/>
-    <mergeCell ref="K269:K271"/>
-    <mergeCell ref="K272:K274"/>
-    <mergeCell ref="K311:K313"/>
-    <mergeCell ref="K314:K316"/>
-    <mergeCell ref="K317:K319"/>
-    <mergeCell ref="K320:K322"/>
-    <mergeCell ref="K323:K325"/>
-    <mergeCell ref="K326:K328"/>
-    <mergeCell ref="K293:K295"/>
-    <mergeCell ref="K296:K298"/>
-    <mergeCell ref="K299:K301"/>
-    <mergeCell ref="K302:K304"/>
-    <mergeCell ref="K305:K307"/>
-    <mergeCell ref="K308:K310"/>
-    <mergeCell ref="K347:K349"/>
-    <mergeCell ref="K350:K352"/>
-    <mergeCell ref="K353:K355"/>
-    <mergeCell ref="K356:K358"/>
-    <mergeCell ref="K359:K361"/>
-    <mergeCell ref="K362:K364"/>
-    <mergeCell ref="K329:K331"/>
-    <mergeCell ref="K332:K334"/>
-    <mergeCell ref="K335:K337"/>
-    <mergeCell ref="K338:K340"/>
-    <mergeCell ref="K341:K343"/>
-    <mergeCell ref="K344:K346"/>
-    <mergeCell ref="K379:K381"/>
-    <mergeCell ref="K382:K384"/>
-    <mergeCell ref="K385:K387"/>
-    <mergeCell ref="K388:K390"/>
-    <mergeCell ref="K391:K393"/>
-    <mergeCell ref="K394:K396"/>
-    <mergeCell ref="J365:J366"/>
-    <mergeCell ref="K365:K366"/>
-    <mergeCell ref="K367:K369"/>
-    <mergeCell ref="K370:K372"/>
-    <mergeCell ref="K373:K375"/>
-    <mergeCell ref="K376:K378"/>
-    <mergeCell ref="K415:K417"/>
-    <mergeCell ref="K418:K420"/>
-    <mergeCell ref="K421:K423"/>
-    <mergeCell ref="K424:K426"/>
-    <mergeCell ref="K427:K429"/>
-    <mergeCell ref="K430:K432"/>
-    <mergeCell ref="K397:K399"/>
-    <mergeCell ref="K400:K402"/>
-    <mergeCell ref="K403:K405"/>
-    <mergeCell ref="K406:K408"/>
-    <mergeCell ref="K409:K411"/>
-    <mergeCell ref="K412:K414"/>
-    <mergeCell ref="K454:K456"/>
-    <mergeCell ref="K457:K459"/>
-    <mergeCell ref="K466:K468"/>
-    <mergeCell ref="K469:K471"/>
-    <mergeCell ref="K484:K486"/>
-    <mergeCell ref="K487:K489"/>
-    <mergeCell ref="K433:K435"/>
-    <mergeCell ref="K436:K438"/>
-    <mergeCell ref="K439:K441"/>
-    <mergeCell ref="K442:K444"/>
-    <mergeCell ref="K448:K450"/>
-    <mergeCell ref="K451:K453"/>
-    <mergeCell ref="J500:J501"/>
-    <mergeCell ref="K500:K501"/>
-    <mergeCell ref="K502:K504"/>
-    <mergeCell ref="K505:K507"/>
-    <mergeCell ref="J508:J509"/>
-    <mergeCell ref="K508:K509"/>
-    <mergeCell ref="J490:J491"/>
-    <mergeCell ref="K490:K491"/>
-    <mergeCell ref="K492:K494"/>
-    <mergeCell ref="J495:J496"/>
-    <mergeCell ref="K495:K496"/>
-    <mergeCell ref="K497:K499"/>
-    <mergeCell ref="K528:K530"/>
-    <mergeCell ref="K531:K533"/>
-    <mergeCell ref="K534:K536"/>
-    <mergeCell ref="K510:K512"/>
-    <mergeCell ref="K513:K515"/>
-    <mergeCell ref="K516:K518"/>
-    <mergeCell ref="K519:K521"/>
-    <mergeCell ref="K522:K524"/>
-    <mergeCell ref="K525:K527"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="J156:J157"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="J146:J147"/>
+    <mergeCell ref="K146:K147"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="K128:K130"/>
+    <mergeCell ref="K131:K133"/>
+    <mergeCell ref="K134:K136"/>
+    <mergeCell ref="K137:K139"/>
+    <mergeCell ref="K140:K142"/>
+    <mergeCell ref="K143:K145"/>
+    <mergeCell ref="K110:K112"/>
+    <mergeCell ref="K113:K115"/>
+    <mergeCell ref="K116:K118"/>
+    <mergeCell ref="K119:K121"/>
+    <mergeCell ref="K122:K124"/>
+    <mergeCell ref="K125:K127"/>
+    <mergeCell ref="K92:K94"/>
+    <mergeCell ref="K95:K97"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="K101:K103"/>
+    <mergeCell ref="K104:K106"/>
+    <mergeCell ref="K107:K109"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="K62:K64"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="K71:K73"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="K17:K19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
